--- a/cn/github/douban/电影.xlsx
+++ b/cn/github/douban/电影.xlsx
@@ -20,28 +20,43 @@
     <t>肖申克的救赎</t>
   </si>
   <si>
-    <t>1432748人评价</t>
+    <t>1987250人评价</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>希望让人自由。</t>
+  </si>
+  <si>
+    <t>霸王别姬</t>
+  </si>
+  <si>
+    <t>1470835人评价</t>
   </si>
   <si>
     <t>9.6</t>
   </si>
   <si>
-    <t>希望让人自由。</t>
-  </si>
-  <si>
-    <t>霸王别姬</t>
-  </si>
-  <si>
-    <t>1061378人评价</t>
-  </si>
-  <si>
     <t>风华绝代。</t>
   </si>
   <si>
+    <t>阿甘正传</t>
+  </si>
+  <si>
+    <t>1506171人评价</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>一部美国近现代史。</t>
+  </si>
+  <si>
     <t>这个杀手不太冷</t>
   </si>
   <si>
-    <t>1306527人评价</t>
+    <t>1699908人评价</t>
   </si>
   <si>
     <t>9.4</t>
@@ -50,22 +65,10 @@
     <t>怪蜀黍和小萝莉不得不说的故事。</t>
   </si>
   <si>
-    <t>阿甘正传</t>
-  </si>
-  <si>
-    <t>1128303人评价</t>
-  </si>
-  <si>
-    <t>一部美国近现代史。</t>
-  </si>
-  <si>
     <t>美丽人生</t>
   </si>
   <si>
-    <t>660922人评价</t>
-  </si>
-  <si>
-    <t>9.5</t>
+    <t>949670人评价</t>
   </si>
   <si>
     <t>最美的谎言。</t>
@@ -74,121 +77,148 @@
     <t>泰坦尼克号</t>
   </si>
   <si>
-    <t>1069215人评价</t>
+    <t>1454918人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">失去的才是永恒的。 </t>
+  </si>
+  <si>
+    <t>千与千寻</t>
+  </si>
+  <si>
+    <t>1556155人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最好的宫崎骏，最好的久石让。 </t>
+  </si>
+  <si>
+    <t>辛德勒的名单</t>
+  </si>
+  <si>
+    <t>768348人评价</t>
+  </si>
+  <si>
+    <t>拯救一个人，就是拯救整个世界。</t>
+  </si>
+  <si>
+    <t>盗梦空间</t>
+  </si>
+  <si>
+    <t>1443293人评价</t>
   </si>
   <si>
     <t>9.3</t>
   </si>
   <si>
-    <t xml:space="preserve">失去的才是永恒的。 </t>
-  </si>
-  <si>
-    <t>千与千寻</t>
-  </si>
-  <si>
-    <t>1054471人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最好的宫崎骏，最好的久石让。 </t>
-  </si>
-  <si>
-    <t>辛德勒的名单</t>
-  </si>
-  <si>
-    <t>588733人评价</t>
-  </si>
-  <si>
-    <t>拯救一个人，就是拯救整个世界。</t>
-  </si>
-  <si>
-    <t>盗梦空间</t>
-  </si>
-  <si>
-    <t>1130234人评价</t>
-  </si>
-  <si>
     <t>诺兰给了我们一场无法盗取的梦。</t>
   </si>
   <si>
     <t>忠犬八公的故事</t>
   </si>
   <si>
-    <t>748077人评价</t>
+    <t>999776人评价</t>
   </si>
   <si>
     <t>永远都不能忘记你所爱的人。</t>
   </si>
   <si>
+    <t>海上钢琴师</t>
+  </si>
+  <si>
+    <t>1202295人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每个人都要走一条自己坚定了的路，就算是粉身碎骨。 </t>
+  </si>
+  <si>
+    <t>楚门的世界</t>
+  </si>
+  <si>
+    <t>1066785人评价</t>
+  </si>
+  <si>
+    <t>如果再也不能见到你，祝你早安，午安，晚安。</t>
+  </si>
+  <si>
+    <t>三傻大闹宝莱坞</t>
+  </si>
+  <si>
+    <t>1334277人评价</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>英俊版憨豆，高情商版谢耳朵。</t>
+  </si>
+  <si>
     <t>机器人总动员</t>
   </si>
   <si>
-    <t>748631人评价</t>
+    <t>951738人评价</t>
   </si>
   <si>
     <t>小瓦力，大人生。</t>
   </si>
   <si>
-    <t>三傻大闹宝莱坞</t>
-  </si>
-  <si>
-    <t>1016838人评价</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>英俊版憨豆，高情商版谢耳朵。</t>
-  </si>
-  <si>
-    <t>海上钢琴师</t>
-  </si>
-  <si>
-    <t>832710人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每个人都要走一条自己坚定了的路，就算是粉身碎骨。 </t>
-  </si>
-  <si>
     <t>放牛班的春天</t>
   </si>
   <si>
-    <t>705163人评价</t>
+    <t>928811人评价</t>
   </si>
   <si>
     <t xml:space="preserve">天籁一般的童声，是最接近上帝的存在。 </t>
   </si>
   <si>
-    <t>楚门的世界</t>
-  </si>
-  <si>
-    <t>780672人评价</t>
-  </si>
-  <si>
-    <t>如果再也不能见到你，祝你早安，午安，晚安。</t>
+    <t>星际穿越</t>
+  </si>
+  <si>
+    <t>1072897人评价</t>
+  </si>
+  <si>
+    <t>爱是一种力量，让我们超越时空感知它的存在。</t>
   </si>
   <si>
     <t>大话西游之大圣娶亲</t>
   </si>
   <si>
-    <t>787624人评价</t>
+    <t>1051985人评价</t>
   </si>
   <si>
     <t>一生所爱。</t>
   </si>
   <si>
-    <t>星际穿越</t>
-  </si>
-  <si>
-    <t>808649人评价</t>
-  </si>
-  <si>
-    <t>爱是一种力量，让我们超越时空感知它的存在。</t>
+    <t>熔炉</t>
+  </si>
+  <si>
+    <t>647288人评价</t>
+  </si>
+  <si>
+    <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
+  </si>
+  <si>
+    <t>疯狂动物城</t>
+  </si>
+  <si>
+    <t>1252632人评价</t>
+  </si>
+  <si>
+    <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
+  </si>
+  <si>
+    <t>无间道</t>
+  </si>
+  <si>
+    <t>856470人评价</t>
+  </si>
+  <si>
+    <t>香港电影史上永不过时的杰作。</t>
   </si>
   <si>
     <t>龙猫</t>
   </si>
   <si>
-    <t>696597人评价</t>
+    <t>893698人评价</t>
   </si>
   <si>
     <t>人人心中都有个龙猫，童年就永远不会消失。</t>
@@ -197,319 +227,391 @@
     <t>教父</t>
   </si>
   <si>
-    <t>510364人评价</t>
+    <t>652925人评价</t>
   </si>
   <si>
     <t>千万不要记恨你的对手，这样会让你失去理智。</t>
   </si>
   <si>
-    <t>熔炉</t>
-  </si>
-  <si>
-    <t>458183人评价</t>
-  </si>
-  <si>
-    <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
-  </si>
-  <si>
-    <t>无间道</t>
-  </si>
-  <si>
-    <t>647212人评价</t>
-  </si>
-  <si>
-    <t>香港电影史上永不过时的杰作。</t>
-  </si>
-  <si>
-    <t>疯狂动物城</t>
-  </si>
-  <si>
-    <t>892082人评价</t>
-  </si>
-  <si>
-    <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
-  </si>
-  <si>
     <t>当幸福来敲门</t>
   </si>
   <si>
-    <t>823902人评价</t>
+    <t>1067155人评价</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平民励志片。 </t>
+  </si>
+  <si>
+    <t>怦然心动</t>
+  </si>
+  <si>
+    <t>1238900人评价</t>
+  </si>
+  <si>
+    <t>真正的幸福是来自内心深处。</t>
+  </si>
+  <si>
+    <t>触不可及</t>
+  </si>
+  <si>
+    <t>697867人评价</t>
+  </si>
+  <si>
+    <t>满满温情的高雅喜剧。</t>
+  </si>
+  <si>
+    <t>蝙蝠侠：黑暗骑士</t>
+  </si>
+  <si>
+    <t>718622人评价</t>
+  </si>
+  <si>
+    <t>无尽的黑暗。</t>
+  </si>
+  <si>
+    <t>控方证人</t>
+  </si>
+  <si>
+    <t>274339人评价</t>
+  </si>
+  <si>
+    <t>比利·怀德满分作品。</t>
+  </si>
+  <si>
+    <t>活着</t>
+  </si>
+  <si>
+    <t>556754人评价</t>
+  </si>
+  <si>
+    <t>张艺谋最好的电影。</t>
+  </si>
+  <si>
+    <t>乱世佳人</t>
+  </si>
+  <si>
+    <t>477710人评价</t>
+  </si>
+  <si>
+    <t>Tomorrow is another day.</t>
+  </si>
+  <si>
+    <t>寻梦环游记</t>
+  </si>
+  <si>
+    <t>1043893人评价</t>
+  </si>
+  <si>
+    <t>死亡不是真的逝去，遗忘才是永恒的消亡。</t>
+  </si>
+  <si>
+    <t>末代皇帝</t>
+  </si>
+  <si>
+    <t>498275人评价</t>
+  </si>
+  <si>
+    <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
+  </si>
+  <si>
+    <t>摔跤吧！爸爸</t>
+  </si>
+  <si>
+    <t>1089868人评价</t>
   </si>
   <si>
     <t>9.0</t>
   </si>
   <si>
-    <t xml:space="preserve">平民励志片。 </t>
-  </si>
-  <si>
-    <t>怦然心动</t>
-  </si>
-  <si>
-    <t>911729人评价</t>
-  </si>
-  <si>
-    <t>真正的幸福是来自内心深处。</t>
-  </si>
-  <si>
-    <t>触不可及</t>
-  </si>
-  <si>
-    <t>543927人评价</t>
-  </si>
-  <si>
-    <t>满满温情的高雅喜剧。</t>
-  </si>
-  <si>
-    <t>蝙蝠侠：黑暗骑士</t>
-  </si>
-  <si>
-    <t>527489人评价</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>无尽的黑暗。</t>
-  </si>
-  <si>
-    <t>乱世佳人</t>
-  </si>
-  <si>
-    <t>377349人评价</t>
-  </si>
-  <si>
-    <t>Tomorrow is another day.</t>
-  </si>
-  <si>
-    <t>活着</t>
-  </si>
-  <si>
-    <t>420398人评价</t>
-  </si>
-  <si>
-    <t>张艺谋最好的电影。</t>
-  </si>
-  <si>
-    <t>控方证人</t>
-  </si>
-  <si>
-    <t>183185人评价</t>
-  </si>
-  <si>
-    <t>比利·怀德满分作品。</t>
+    <t>你不是在为你一个人战斗，你要让千千万万的女性看到女生并不是只能相夫教子。</t>
+  </si>
+  <si>
+    <t>指环王3：王者无敌</t>
+  </si>
+  <si>
+    <t>528182人评价</t>
+  </si>
+  <si>
+    <t>史诗的终章。</t>
   </si>
   <si>
     <t>少年派的奇幻漂流</t>
   </si>
   <si>
-    <t>818527人评价</t>
+    <t>1009701人评价</t>
   </si>
   <si>
     <t>瑰丽壮观、无人能及的冒险之旅。</t>
   </si>
   <si>
-    <t>指环王3：王者无敌</t>
-  </si>
-  <si>
-    <t>412407人评价</t>
-  </si>
-  <si>
-    <t>史诗的终章。</t>
+    <t>何以为家</t>
+  </si>
+  <si>
+    <t>630138人评价</t>
+  </si>
+  <si>
+    <t>凝视卑弱生命，用电影改变命运。</t>
+  </si>
+  <si>
+    <t>飞屋环游记</t>
+  </si>
+  <si>
+    <t>939767人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">最后那些最无聊的事情，才是最值得怀念的。 </t>
+  </si>
+  <si>
+    <t>十二怒汉</t>
+  </si>
+  <si>
+    <t>317431人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1957年的理想主义。 </t>
+  </si>
+  <si>
+    <t>鬼子来了</t>
+  </si>
+  <si>
+    <t>433568人评价</t>
+  </si>
+  <si>
+    <t>对敌人的仁慈，就是对自己残忍。</t>
+  </si>
+  <si>
+    <t>天空之城</t>
+  </si>
+  <si>
+    <t>596228人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对天空的追逐，永不停止。 </t>
+  </si>
+  <si>
+    <t>大话西游之月光宝盒</t>
+  </si>
+  <si>
+    <t>844132人评价</t>
+  </si>
+  <si>
+    <t>旷古烁今。</t>
+  </si>
+  <si>
+    <t>哈尔的移动城堡</t>
+  </si>
+  <si>
+    <t>683838人评价</t>
+  </si>
+  <si>
+    <t>带着心爱的人在天空飞翔。</t>
+  </si>
+  <si>
+    <t>素媛</t>
+  </si>
+  <si>
+    <t>431511人评价</t>
+  </si>
+  <si>
+    <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
   </si>
   <si>
     <t>天堂电影院</t>
   </si>
   <si>
-    <t>403500人评价</t>
+    <t>469915人评价</t>
   </si>
   <si>
     <t>那些吻戏，那些青春，都在影院的黑暗里被泪水冲刷得无比清晰。</t>
   </si>
   <si>
-    <t>鬼子来了</t>
-  </si>
-  <si>
-    <t>343168人评价</t>
-  </si>
-  <si>
-    <t>对敌人的仁慈，就是对自己残忍。</t>
-  </si>
-  <si>
-    <t>十二怒汉</t>
-  </si>
-  <si>
-    <t>243871人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1957年的理想主义。 </t>
-  </si>
-  <si>
-    <t>天空之城</t>
-  </si>
-  <si>
-    <t>482583人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对天空的追逐，永不停止。 </t>
-  </si>
-  <si>
-    <t>摔跤吧！爸爸</t>
-  </si>
-  <si>
-    <t>791534人评价</t>
-  </si>
-  <si>
-    <t>你不是在为你一个人战斗，你要让千千万万的女性看到女生并不是只能相夫教子。</t>
-  </si>
-  <si>
-    <t>飞屋环游记</t>
-  </si>
-  <si>
-    <t>734622人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最后那些最无聊的事情，才是最值得怀念的。 </t>
-  </si>
-  <si>
-    <t>大话西游之月光宝盒</t>
-  </si>
-  <si>
-    <t>636414人评价</t>
-  </si>
-  <si>
-    <t>旷古烁今。</t>
+    <t>罗马假日</t>
+  </si>
+  <si>
+    <t>688625人评价</t>
+  </si>
+  <si>
+    <t>爱情哪怕只有一天。</t>
+  </si>
+  <si>
+    <t>闻香识女人</t>
+  </si>
+  <si>
+    <t>597873人评价</t>
+  </si>
+  <si>
+    <t>史上最美的探戈。</t>
+  </si>
+  <si>
+    <t>辩护人</t>
+  </si>
+  <si>
+    <t>426683人评价</t>
+  </si>
+  <si>
+    <t>电影的现实意义大过电影本身。</t>
+  </si>
+  <si>
+    <t>哈利·波特与魔法石</t>
+  </si>
+  <si>
+    <t>642268人评价</t>
+  </si>
+  <si>
+    <t>童话世界的开端。</t>
   </si>
   <si>
     <t>搏击俱乐部</t>
   </si>
   <si>
-    <t>524440人评价</t>
+    <t>622160人评价</t>
   </si>
   <si>
     <t>邪恶与平庸蛰伏于同一个母体，在特定的时间互相对峙。</t>
   </si>
   <si>
-    <t>哈尔的移动城堡</t>
-  </si>
-  <si>
-    <t>536203人评价</t>
-  </si>
-  <si>
-    <t>带着心爱的人在天空飞翔。</t>
-  </si>
-  <si>
-    <t>罗马假日</t>
-  </si>
-  <si>
-    <t>549561人评价</t>
-  </si>
-  <si>
-    <t>爱情哪怕只有一天。</t>
-  </si>
-  <si>
-    <t>闻香识女人</t>
-  </si>
-  <si>
-    <t>470236人评价</t>
-  </si>
-  <si>
-    <t>史上最美的探戈。</t>
-  </si>
-  <si>
-    <t>辩护人</t>
-  </si>
-  <si>
-    <t>324561人评价</t>
-  </si>
-  <si>
-    <t>电影的现实意义大过电影本身。</t>
-  </si>
-  <si>
-    <t>末代皇帝</t>
-  </si>
-  <si>
-    <t>323754人评价</t>
-  </si>
-  <si>
-    <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
+    <t>我不是药神</t>
+  </si>
+  <si>
+    <t>1463524人评价</t>
+  </si>
+  <si>
+    <t>对我们国家而言，这样的电影多一部是一部。</t>
+  </si>
+  <si>
+    <t>死亡诗社</t>
+  </si>
+  <si>
+    <t>489673人评价</t>
+  </si>
+  <si>
+    <t>当一个死水般的体制内出现一个活跃的变数时，所有的腐臭都站在了光明的对面。</t>
+  </si>
+  <si>
+    <t>教父2</t>
+  </si>
+  <si>
+    <t>360482人评价</t>
+  </si>
+  <si>
+    <t>优雅的孤独。</t>
+  </si>
+  <si>
+    <t>指环王2：双塔奇兵</t>
+  </si>
+  <si>
+    <t>483509人评价</t>
+  </si>
+  <si>
+    <t>承前启后的史诗篇章。</t>
+  </si>
+  <si>
+    <t>狮子王</t>
+  </si>
+  <si>
+    <t>558119人评价</t>
+  </si>
+  <si>
+    <t>动物版《哈姆雷特》。</t>
   </si>
   <si>
     <t>窃听风暴</t>
   </si>
   <si>
-    <t>326030人评价</t>
+    <t>402882人评价</t>
   </si>
   <si>
     <t>别样人生。</t>
   </si>
   <si>
-    <t>寻梦环游记</t>
-  </si>
-  <si>
-    <t>755897人评价</t>
-  </si>
-  <si>
-    <t>死亡不是真的逝去，遗忘才是永恒的消亡。</t>
+    <t>大闹天宫</t>
+  </si>
+  <si>
+    <t>264461人评价</t>
+  </si>
+  <si>
+    <t>经典之作，历久弥新。</t>
+  </si>
+  <si>
+    <t>指环王1：魔戒再现</t>
+  </si>
+  <si>
+    <t>544228人评价</t>
+  </si>
+  <si>
+    <t>传说的开始。</t>
   </si>
   <si>
     <t>两杆大烟枪</t>
   </si>
   <si>
-    <t>358214人评价</t>
+    <t>429100人评价</t>
   </si>
   <si>
     <t>4个臭皮匠顶个诸葛亮，盖·里奇果然不是盖的。</t>
   </si>
   <si>
-    <t>素媛</t>
-  </si>
-  <si>
-    <t>298805人评价</t>
-  </si>
-  <si>
-    <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
-  </si>
-  <si>
-    <t>死亡诗社</t>
-  </si>
-  <si>
-    <t>397640人评价</t>
-  </si>
-  <si>
-    <t>当一个死水般的体制内出现一个活跃的变数时，所有的腐臭都站在了光明的对面。</t>
+    <t>美丽心灵</t>
+  </si>
+  <si>
+    <t>530872人评价</t>
+  </si>
+  <si>
+    <t>爱是一切逻辑和原由。</t>
+  </si>
+  <si>
+    <t>饮食男女</t>
+  </si>
+  <si>
+    <t>394954人评价</t>
+  </si>
+  <si>
+    <t>人生不能像做菜，把所有的料都准备好了才下锅。</t>
   </si>
   <si>
     <t>飞越疯人院</t>
   </si>
   <si>
-    <t>361285人评价</t>
+    <t>424662人评价</t>
   </si>
   <si>
     <t>自由万岁。</t>
   </si>
   <si>
-    <t>指环王2：双塔奇兵</t>
-  </si>
-  <si>
-    <t>387349人评价</t>
-  </si>
-  <si>
-    <t>承前启后的史诗篇章。</t>
-  </si>
-  <si>
-    <t>教父2</t>
-  </si>
-  <si>
-    <t>276935人评价</t>
-  </si>
-  <si>
-    <t>优雅的孤独。</t>
+    <t>猫鼠游戏</t>
+  </si>
+  <si>
+    <t>549257人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骗子大师和执著警探的你追我跑故事。 </t>
+  </si>
+  <si>
+    <t>黑客帝国</t>
+  </si>
+  <si>
+    <t>542236人评价</t>
+  </si>
+  <si>
+    <t>视觉革命。</t>
+  </si>
+  <si>
+    <t>钢琴家</t>
+  </si>
+  <si>
+    <t>356944人评价</t>
+  </si>
+  <si>
+    <t>音乐能化解仇恨。</t>
   </si>
   <si>
     <t>V字仇杀队</t>
   </si>
   <si>
-    <t>607471人评价</t>
+    <t>747186人评价</t>
   </si>
   <si>
     <t>8.9</t>
@@ -518,1792 +620,1690 @@
     <t>一张面具背后的理想与革命。</t>
   </si>
   <si>
-    <t>指环王1：魔戒再现</t>
-  </si>
-  <si>
-    <t>434468人评价</t>
-  </si>
-  <si>
-    <t>传说的开始。</t>
-  </si>
-  <si>
-    <t>狮子王</t>
-  </si>
-  <si>
-    <t>413109人评价</t>
-  </si>
-  <si>
-    <t>动物版《哈姆雷特》。</t>
-  </si>
-  <si>
-    <t>饮食男女</t>
-  </si>
-  <si>
-    <t>297683人评价</t>
-  </si>
-  <si>
-    <t>人生不能像做菜，把所有的料都准备好了才下锅。</t>
-  </si>
-  <si>
-    <t>美丽心灵</t>
-  </si>
-  <si>
-    <t>422527人评价</t>
-  </si>
-  <si>
-    <t>爱是一切逻辑和原由。</t>
+    <t>本杰明·巴顿奇事</t>
+  </si>
+  <si>
+    <t>693468人评价</t>
+  </si>
+  <si>
+    <t>在时间之河里感受溺水之苦。</t>
+  </si>
+  <si>
+    <t>看不见的客人</t>
+  </si>
+  <si>
+    <t>809859人评价</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>你以为你以为的就是你以为的。</t>
+  </si>
+  <si>
+    <t>让子弹飞</t>
+  </si>
+  <si>
+    <t>1126357人评价</t>
+  </si>
+  <si>
+    <t>你给我翻译翻译，神马叫做TMD的惊喜。</t>
+  </si>
+  <si>
+    <t>西西里的美丽传说</t>
+  </si>
+  <si>
+    <t>680988人评价</t>
+  </si>
+  <si>
+    <t>美丽无罪。</t>
+  </si>
+  <si>
+    <t>小鞋子</t>
+  </si>
+  <si>
+    <t>278174人评价</t>
+  </si>
+  <si>
+    <t>奔跑的孩子是天使。</t>
   </si>
   <si>
     <t>海豚湾</t>
   </si>
   <si>
-    <t>238285人评价</t>
+    <t>281126人评价</t>
   </si>
   <si>
     <t>海豚的微笑，是世界上最高明的伪装。</t>
   </si>
   <si>
+    <t>拯救大兵瑞恩</t>
+  </si>
+  <si>
+    <t>448391人评价</t>
+  </si>
+  <si>
+    <t>美利坚精神输出大片No1.</t>
+  </si>
+  <si>
     <t>情书</t>
   </si>
   <si>
-    <t>523724人评价</t>
+    <t>637669人评价</t>
   </si>
   <si>
     <t>暗恋的极致。</t>
   </si>
   <si>
-    <t>钢琴家</t>
-  </si>
-  <si>
-    <t>278562人评价</t>
-  </si>
-  <si>
-    <t>音乐能化解仇恨。</t>
-  </si>
-  <si>
-    <t>本杰明·巴顿奇事</t>
-  </si>
-  <si>
-    <t>551373人评价</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>在时间之河里感受溺水之苦。</t>
-  </si>
-  <si>
-    <t>看不见的客人</t>
-  </si>
-  <si>
-    <t>593716人评价</t>
-  </si>
-  <si>
-    <t>你以为你以为的就是你以为的。</t>
+    <t>穿条纹睡衣的男孩</t>
+  </si>
+  <si>
+    <t>342694人评价</t>
+  </si>
+  <si>
+    <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
+  </si>
+  <si>
+    <t>音乐之声</t>
+  </si>
+  <si>
+    <t>416182人评价</t>
+  </si>
+  <si>
+    <t>用音乐化解仇恨，让歌声串起美好。</t>
   </si>
   <si>
     <t>美国往事</t>
   </si>
   <si>
-    <t>238150人评价</t>
+    <t>294845人评价</t>
   </si>
   <si>
     <t>往事如烟，无处祭奠。</t>
   </si>
   <si>
-    <t>黑客帝国</t>
-  </si>
-  <si>
-    <t>412532人评价</t>
-  </si>
-  <si>
-    <t>视觉革命。</t>
-  </si>
-  <si>
-    <t>西西里的美丽传说</t>
-  </si>
-  <si>
-    <t>523407人评价</t>
-  </si>
-  <si>
-    <t>美丽无罪。</t>
-  </si>
-  <si>
-    <t>哈利·波特与魔法石</t>
-  </si>
-  <si>
-    <t>435743人评价</t>
-  </si>
-  <si>
-    <t>童话世界的开端。</t>
-  </si>
-  <si>
-    <t>小鞋子</t>
-  </si>
-  <si>
-    <t>205277人评价</t>
-  </si>
-  <si>
-    <t>奔跑的孩子是天使。</t>
-  </si>
-  <si>
-    <t>大闹天宫</t>
-  </si>
-  <si>
-    <t>172825人评价</t>
-  </si>
-  <si>
-    <t>经典之作，历久弥新。</t>
-  </si>
-  <si>
-    <t>拯救大兵瑞恩</t>
-  </si>
-  <si>
-    <t>351978人评价</t>
-  </si>
-  <si>
-    <t>美利坚精神输出大片No1.</t>
-  </si>
-  <si>
-    <t>让子弹飞</t>
-  </si>
-  <si>
-    <t>897218人评价</t>
-  </si>
-  <si>
-    <t>你给我翻译翻译，神马叫做TMD的惊喜。</t>
+    <t>绿皮书</t>
+  </si>
+  <si>
+    <t>1042432人评价</t>
+  </si>
+  <si>
+    <t>去除成见，需要勇气。</t>
   </si>
   <si>
     <t>致命魔术</t>
   </si>
   <si>
-    <t>477749人评价</t>
+    <t>593442人评价</t>
   </si>
   <si>
     <t>孪生蝙蝠侠大战克隆金刚狼。</t>
   </si>
   <si>
+    <t>海蒂和爷爷</t>
+  </si>
+  <si>
+    <t>251464人评价</t>
+  </si>
+  <si>
+    <t>如果生活中有什么使你感到快乐，那就去做吧！不要管别人说什么。</t>
+  </si>
+  <si>
+    <t>低俗小说</t>
+  </si>
+  <si>
+    <t>588417人评价</t>
+  </si>
+  <si>
+    <t>故事的高级讲法。</t>
+  </si>
+  <si>
     <t>七宗罪</t>
   </si>
   <si>
-    <t>571755人评价</t>
+    <t>689821人评价</t>
   </si>
   <si>
     <t>警察抓小偷，老鼠玩死猫。</t>
   </si>
   <si>
-    <t>音乐之声</t>
-  </si>
-  <si>
-    <t>322827人评价</t>
-  </si>
-  <si>
-    <t>用音乐化解仇恨，让歌声串起美好。</t>
+    <t>沉默的羔羊</t>
+  </si>
+  <si>
+    <t>586805人评价</t>
+  </si>
+  <si>
+    <t>安东尼·霍普金斯的顶级表演。</t>
+  </si>
+  <si>
+    <t>蝴蝶效应</t>
+  </si>
+  <si>
+    <t>652397人评价</t>
+  </si>
+  <si>
+    <t>人的命运被自己瞬间的抉择改变。</t>
+  </si>
+  <si>
+    <t>春光乍泄</t>
+  </si>
+  <si>
+    <t>440338人评价</t>
+  </si>
+  <si>
+    <t>爱情纠缠，男女一致。</t>
+  </si>
+  <si>
+    <t>禁闭岛</t>
+  </si>
+  <si>
+    <t>652572人评价</t>
+  </si>
+  <si>
+    <t>昔日翩翩少年，今日大腹便便。</t>
   </si>
   <si>
     <t>被嫌弃的松子的一生</t>
   </si>
   <si>
-    <t>424909人评价</t>
+    <t>527109人评价</t>
   </si>
   <si>
     <t>以戏谑来戏谑戏谑。</t>
   </si>
   <si>
-    <t>低俗小说</t>
-  </si>
-  <si>
-    <t>471957人评价</t>
-  </si>
-  <si>
-    <t>故事的高级讲法。</t>
-  </si>
-  <si>
-    <t>猫鼠游戏</t>
-  </si>
-  <si>
-    <t>372886人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">骗子大师和执著警探的你追我跑故事。 </t>
-  </si>
-  <si>
-    <t>沉默的羔羊</t>
-  </si>
-  <si>
-    <t>477088人评价</t>
-  </si>
-  <si>
-    <t>安东尼·霍普金斯的顶级表演。</t>
+    <t>心灵捕手</t>
+  </si>
+  <si>
+    <t>487261人评价</t>
+  </si>
+  <si>
+    <t>人生中应该拥有这样的一段豁然开朗。</t>
+  </si>
+  <si>
+    <t>布达佩斯大饭店</t>
+  </si>
+  <si>
+    <t>617121人评价</t>
+  </si>
+  <si>
+    <t>小清新的故事里注入了大历史的情怀。</t>
+  </si>
+  <si>
+    <t>阿凡达</t>
+  </si>
+  <si>
+    <t>935413人评价</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>绝对意义上的美轮美奂。</t>
+  </si>
+  <si>
+    <t>剪刀手爱德华</t>
+  </si>
+  <si>
+    <t>791438人评价</t>
+  </si>
+  <si>
+    <t>浪漫忧郁的成人童话。</t>
+  </si>
+  <si>
+    <t>勇敢的心</t>
+  </si>
+  <si>
+    <t>438598人评价</t>
+  </si>
+  <si>
+    <t>史诗大片的典范。</t>
+  </si>
+  <si>
+    <t>摩登时代</t>
+  </si>
+  <si>
+    <t>193104人评价</t>
+  </si>
+  <si>
+    <t>大时代中的人生，小人物的悲喜。</t>
   </si>
   <si>
     <t>天使爱美丽</t>
   </si>
   <si>
-    <t>634599人评价</t>
-  </si>
-  <si>
-    <t>8.7</t>
+    <t>757404人评价</t>
   </si>
   <si>
     <t xml:space="preserve">法式小清新。 </t>
   </si>
   <si>
-    <t>勇敢的心</t>
-  </si>
-  <si>
-    <t>376402人评价</t>
-  </si>
-  <si>
-    <t>史诗大片的典范。</t>
-  </si>
-  <si>
-    <t>蝴蝶效应</t>
-  </si>
-  <si>
-    <t>525127人评价</t>
-  </si>
-  <si>
-    <t>人的命运被自己瞬间的抉择改变。</t>
-  </si>
-  <si>
-    <t>剪刀手爱德华</t>
-  </si>
-  <si>
-    <t>650412人评价</t>
-  </si>
-  <si>
-    <t>浪漫忧郁的成人童话。</t>
-  </si>
-  <si>
-    <t>春光乍泄</t>
-  </si>
-  <si>
-    <t>350366人评价</t>
-  </si>
-  <si>
-    <t>爱情纠缠，男女一致。</t>
-  </si>
-  <si>
-    <t>心灵捕手</t>
-  </si>
-  <si>
-    <t>384340人评价</t>
-  </si>
-  <si>
-    <t>人生中应该拥有这样的一段豁然开朗。</t>
-  </si>
-  <si>
-    <t>禁闭岛</t>
-  </si>
-  <si>
-    <t>512223人评价</t>
-  </si>
-  <si>
-    <t>昔日翩翩少年，今日大腹便便。</t>
-  </si>
-  <si>
-    <t>穿条纹睡衣的男孩</t>
-  </si>
-  <si>
-    <t>237623人评价</t>
-  </si>
-  <si>
-    <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
-  </si>
-  <si>
-    <t>布达佩斯大饭店</t>
-  </si>
-  <si>
-    <t>475053人评价</t>
-  </si>
-  <si>
-    <t>小清新的故事里注入了大历史的情怀。</t>
+    <t>喜剧之王</t>
+  </si>
+  <si>
+    <t>650865人评价</t>
+  </si>
+  <si>
+    <t>我是一个演员。</t>
+  </si>
+  <si>
+    <t>加勒比海盗</t>
+  </si>
+  <si>
+    <t>620115人评价</t>
+  </si>
+  <si>
+    <t>约翰尼·德普的独角戏。</t>
+  </si>
+  <si>
+    <t>致命ID</t>
+  </si>
+  <si>
+    <t>545468人评价</t>
+  </si>
+  <si>
+    <t>最不可能的那个人永远是最可能的。</t>
+  </si>
+  <si>
+    <t>断背山</t>
+  </si>
+  <si>
+    <t>525742人评价</t>
+  </si>
+  <si>
+    <t>每个人心中都有一座断背山。</t>
+  </si>
+  <si>
+    <t>杀人回忆</t>
+  </si>
+  <si>
+    <t>451361人评价</t>
+  </si>
+  <si>
+    <t>关于连环杀人悬案的集体回忆。</t>
+  </si>
+  <si>
+    <t>狩猎</t>
+  </si>
+  <si>
+    <t>243591人评价</t>
+  </si>
+  <si>
+    <t>人言可畏。</t>
+  </si>
+  <si>
+    <t>幽灵公主</t>
+  </si>
+  <si>
+    <t>386433人评价</t>
+  </si>
+  <si>
+    <t>人与自然的战争史诗。</t>
+  </si>
+  <si>
+    <t>请以你的名字呼唤我</t>
+  </si>
+  <si>
+    <t>433711人评价</t>
+  </si>
+  <si>
+    <t>沉醉在电影的情感和视听氛围中无法自拔。</t>
+  </si>
+  <si>
+    <t>哈利·波特与死亡圣器(下)</t>
+  </si>
+  <si>
+    <t>517295人评价</t>
+  </si>
+  <si>
+    <t>10年的完美句点。</t>
+  </si>
+  <si>
+    <t>阳光灿烂的日子</t>
+  </si>
+  <si>
+    <t>443610人评价</t>
+  </si>
+  <si>
+    <t>一场华丽的意淫。</t>
   </si>
   <si>
     <t>入殓师</t>
   </si>
   <si>
-    <t>391971人评价</t>
+    <t>444135人评价</t>
   </si>
   <si>
     <t>死可能是一道门，逝去并不是终结，而是超越，走向下一程。</t>
   </si>
   <si>
-    <t>阿凡达</t>
-  </si>
-  <si>
-    <t>751379人评价</t>
-  </si>
-  <si>
-    <t>绝对意义上的美轮美奂。</t>
-  </si>
-  <si>
-    <t>幽灵公主</t>
-  </si>
-  <si>
-    <t>321752人评价</t>
-  </si>
-  <si>
-    <t>人与自然的战争史诗。</t>
-  </si>
-  <si>
-    <t>阳光灿烂的日子</t>
-  </si>
-  <si>
-    <t>366359人评价</t>
-  </si>
-  <si>
-    <t>一场华丽的意淫。</t>
-  </si>
-  <si>
-    <t>致命ID</t>
-  </si>
-  <si>
-    <t>437212人评价</t>
-  </si>
-  <si>
-    <t>最不可能的那个人永远是最可能的。</t>
-  </si>
-  <si>
-    <t>加勒比海盗</t>
-  </si>
-  <si>
-    <t>494416人评价</t>
-  </si>
-  <si>
-    <t>约翰尼·德普的独角戏。</t>
+    <t>重庆森林</t>
+  </si>
+  <si>
+    <t>558551人评价</t>
+  </si>
+  <si>
+    <t>寂寞没有期限。</t>
   </si>
   <si>
     <t>第六感</t>
   </si>
   <si>
-    <t>314109人评价</t>
+    <t>381792人评价</t>
   </si>
   <si>
     <t>深入内心的恐怖，出人意料的结局。</t>
   </si>
   <si>
-    <t>断背山</t>
-  </si>
-  <si>
-    <t>431468人评价</t>
-  </si>
-  <si>
-    <t>每个人心中都有一座断背山。</t>
-  </si>
-  <si>
-    <t>摩登时代</t>
-  </si>
-  <si>
-    <t>139138人评价</t>
-  </si>
-  <si>
-    <t>大时代中的人生，小人物的悲喜。</t>
-  </si>
-  <si>
-    <t>重庆森林</t>
-  </si>
-  <si>
-    <t>450803人评价</t>
-  </si>
-  <si>
-    <t>寂寞没有期限。</t>
-  </si>
-  <si>
-    <t>狩猎</t>
-  </si>
-  <si>
-    <t>188599人评价</t>
-  </si>
-  <si>
-    <t>人言可畏。</t>
+    <t>小森林 夏秋篇</t>
+  </si>
+  <si>
+    <t>288240人评价</t>
+  </si>
+  <si>
+    <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
+  </si>
+  <si>
+    <t>7号房的礼物</t>
+  </si>
+  <si>
+    <t>357704人评价</t>
+  </si>
+  <si>
+    <t>《我是山姆》的《美丽人生》。</t>
+  </si>
+  <si>
+    <t>消失的爱人</t>
+  </si>
+  <si>
+    <t>628133人评价</t>
+  </si>
+  <si>
+    <t>年度最佳date movie。</t>
+  </si>
+  <si>
+    <t>红辣椒</t>
+  </si>
+  <si>
+    <t>268276人评价</t>
+  </si>
+  <si>
+    <t>梦的勾结。</t>
+  </si>
+  <si>
+    <t>爱在黎明破晓前</t>
+  </si>
+  <si>
+    <t>410458人评价</t>
+  </si>
+  <si>
+    <t>缘分是个连绵词，最美不过一瞬。</t>
+  </si>
+  <si>
+    <t>小森林 冬春篇</t>
+  </si>
+  <si>
+    <t>254424人评价</t>
+  </si>
+  <si>
+    <t>尊敬他人，尊敬你生活的这片土地，明白孤独是人生的常态。</t>
   </si>
   <si>
     <t>玛丽和马克思</t>
   </si>
   <si>
-    <t>282060人评价</t>
+    <t>326796人评价</t>
   </si>
   <si>
     <t>你是我最好的朋友，你是我唯一的朋友 。</t>
   </si>
   <si>
-    <t>喜剧之王</t>
-  </si>
-  <si>
-    <t>484087人评价</t>
-  </si>
-  <si>
-    <t>我是一个演员。</t>
+    <t>侧耳倾听</t>
+  </si>
+  <si>
+    <t>317029人评价</t>
+  </si>
+  <si>
+    <t>少女情怀总是诗。</t>
+  </si>
+  <si>
+    <t>一一</t>
+  </si>
+  <si>
+    <t>244962人评价</t>
+  </si>
+  <si>
+    <t>我们都曾经是一一。</t>
+  </si>
+  <si>
+    <t>唐伯虎点秋香</t>
+  </si>
+  <si>
+    <t>704447人评价</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>华太师是黄霑，吴镇宇四大才子之一。</t>
   </si>
   <si>
     <t>告白</t>
   </si>
   <si>
-    <t>451439人评价</t>
+    <t>528342人评价</t>
   </si>
   <si>
     <t>没有一人完全善，也没有一人完全恶。</t>
   </si>
   <si>
-    <t>消失的爱人</t>
-  </si>
-  <si>
-    <t>502287人评价</t>
-  </si>
-  <si>
-    <t>年度最佳date movie。</t>
+    <t>蝙蝠侠：黑暗骑士崛起</t>
+  </si>
+  <si>
+    <t>500152人评价</t>
+  </si>
+  <si>
+    <t>诺兰就是保证。</t>
   </si>
   <si>
     <t>大鱼</t>
   </si>
   <si>
-    <t>333988人评价</t>
+    <t>412247人评价</t>
   </si>
   <si>
     <t>抱着梦想而活着的人是幸福的，怀抱梦想而死去的人是不朽的。</t>
   </si>
   <si>
-    <t>一一</t>
-  </si>
-  <si>
-    <t>203191人评价</t>
-  </si>
-  <si>
-    <t>我们都曾经是一一。</t>
+    <t>阳光姐妹淘</t>
+  </si>
+  <si>
+    <t>448016人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">再多各自牛逼的时光，也比不上一起傻逼的岁月。 </t>
+  </si>
+  <si>
+    <t>倩女幽魂</t>
+  </si>
+  <si>
+    <t>498467人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">两张绝世的脸。 </t>
+  </si>
+  <si>
+    <t>超脱</t>
+  </si>
+  <si>
+    <t>318262人评价</t>
+  </si>
+  <si>
+    <t>穷尽一生，我们要学会的，不过是彼此拥抱。</t>
   </si>
   <si>
     <t>射雕英雄传之东成西就</t>
   </si>
   <si>
-    <t>369554人评价</t>
+    <t>458685人评价</t>
   </si>
   <si>
     <t xml:space="preserve">百看不厌。 </t>
   </si>
   <si>
-    <t>阳光姐妹淘</t>
-  </si>
-  <si>
-    <t>361294人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">再多各自牛逼的时光，也比不上一起傻逼的岁月。 </t>
-  </si>
-  <si>
-    <t>爱在黎明破晓前</t>
-  </si>
-  <si>
-    <t>310642人评价</t>
-  </si>
-  <si>
-    <t>缘分是个连绵词，最美不过一瞬。</t>
-  </si>
-  <si>
     <t>甜蜜蜜</t>
   </si>
   <si>
-    <t>296924人评价</t>
+    <t>361261人评价</t>
   </si>
   <si>
     <t>相逢只要一瞬间，等待却像是一辈子。</t>
   </si>
   <si>
-    <t>小森林 夏秋篇</t>
-  </si>
-  <si>
-    <t>211052人评价</t>
-  </si>
-  <si>
-    <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
-  </si>
-  <si>
-    <t>请以你的名字呼唤我</t>
-  </si>
-  <si>
-    <t>303609人评价</t>
-  </si>
-  <si>
-    <t>沉醉在电影的情感和视听氛围中无法自拔。</t>
-  </si>
-  <si>
-    <t>侧耳倾听</t>
-  </si>
-  <si>
-    <t>240845人评价</t>
-  </si>
-  <si>
-    <t>少女情怀总是诗。</t>
-  </si>
-  <si>
     <t>驯龙高手</t>
   </si>
   <si>
-    <t>415922人评价</t>
+    <t>532786人评价</t>
   </si>
   <si>
     <t>和谐的生活离不开摸头与被摸头。</t>
   </si>
   <si>
-    <t>红辣椒</t>
-  </si>
-  <si>
-    <t>198677人评价</t>
-  </si>
-  <si>
-    <t>梦的勾结。</t>
-  </si>
-  <si>
-    <t>倩女幽魂</t>
-  </si>
-  <si>
-    <t>378900人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">两张绝世的脸。 </t>
+    <t>萤火之森</t>
+  </si>
+  <si>
+    <t>340704人评价</t>
+  </si>
+  <si>
+    <t>触不到的恋人。</t>
+  </si>
+  <si>
+    <t>超能陆战队</t>
+  </si>
+  <si>
+    <t>689202人评价</t>
+  </si>
+  <si>
+    <t>Balalala~~~</t>
+  </si>
+  <si>
+    <t>无人知晓</t>
+  </si>
+  <si>
+    <t>184950人评价</t>
+  </si>
+  <si>
+    <t>我的平常生活就是他人的幸福。</t>
+  </si>
+  <si>
+    <t>幸福终点站</t>
+  </si>
+  <si>
+    <t>377090人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有时候幸福需要等一等。 </t>
+  </si>
+  <si>
+    <t>菊次郎的夏天</t>
+  </si>
+  <si>
+    <t>354563人评价</t>
+  </si>
+  <si>
+    <t>从没见过那么流氓的温柔，从没见过那么温柔的流氓。</t>
+  </si>
+  <si>
+    <t>借东西的小人阿莉埃蒂</t>
+  </si>
+  <si>
+    <t>375999人评价</t>
+  </si>
+  <si>
+    <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
   </si>
   <si>
     <t>恐怖直播</t>
   </si>
   <si>
-    <t>331973人评价</t>
+    <t>436150人评价</t>
   </si>
   <si>
     <t>恐怖分子的“秋菊打官司”。</t>
   </si>
   <si>
+    <t>爱在日落黄昏时</t>
+  </si>
+  <si>
+    <t>349677人评价</t>
+  </si>
+  <si>
+    <t>九年后的重逢是世俗和责任的交叠，没了悸动和青涩，沧桑而温暖。</t>
+  </si>
+  <si>
+    <t>完美的世界</t>
+  </si>
+  <si>
+    <t>172741人评价</t>
+  </si>
+  <si>
+    <t>坏人的好总是比好人的好来得更感人。</t>
+  </si>
+  <si>
+    <t>神偷奶爸</t>
+  </si>
+  <si>
+    <t>689264人评价</t>
+  </si>
+  <si>
+    <t>Mr. I Don't Care其实也有Care的时候。</t>
+  </si>
+  <si>
+    <t>怪兽电力公司</t>
+  </si>
+  <si>
+    <t>448652人评价</t>
+  </si>
+  <si>
+    <t>不要给它起名字，起了名字就有感情了。</t>
+  </si>
+  <si>
+    <t>玩具总动员3</t>
+  </si>
+  <si>
+    <t>348201人评价</t>
+  </si>
+  <si>
+    <t>跨度十五年的欢乐与泪水。</t>
+  </si>
+  <si>
     <t>风之谷</t>
   </si>
   <si>
-    <t>236290人评价</t>
+    <t>276515人评价</t>
   </si>
   <si>
     <t>动画片的圣经。</t>
   </si>
   <si>
-    <t>超脱</t>
-  </si>
-  <si>
-    <t>243887人评价</t>
-  </si>
-  <si>
-    <t>穷尽一生，我们要学会的，不过是彼此拥抱。</t>
-  </si>
-  <si>
-    <t>爱在日落黄昏时</t>
-  </si>
-  <si>
-    <t>271502人评价</t>
-  </si>
-  <si>
-    <t>九年后的重逢是世俗和责任的交叠，没了悸动和青涩，沧桑而温暖。</t>
+    <t>血战钢锯岭</t>
+  </si>
+  <si>
+    <t>567021人评价</t>
+  </si>
+  <si>
+    <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
+  </si>
+  <si>
+    <t>傲慢与偏见</t>
+  </si>
+  <si>
+    <t>530499人评价</t>
+  </si>
+  <si>
+    <t>爱是摈弃傲慢与偏见之后的曙光。</t>
+  </si>
+  <si>
+    <t>功夫</t>
+  </si>
+  <si>
+    <t>648965人评价</t>
+  </si>
+  <si>
+    <t>警恶惩奸，维护世界和平这个任务就交给你了，好吗？</t>
   </si>
   <si>
     <t>上帝之城</t>
   </si>
   <si>
-    <t>194446人评价</t>
+    <t>226488人评价</t>
   </si>
   <si>
     <t>被上帝抛弃了的上帝之城。</t>
   </si>
   <si>
-    <t>菊次郎的夏天</t>
-  </si>
-  <si>
-    <t>265626人评价</t>
-  </si>
-  <si>
-    <t>从没见过那么流氓的温柔，从没见过那么温柔的流氓。</t>
-  </si>
-  <si>
-    <t>小森林 冬春篇</t>
-  </si>
-  <si>
-    <t>184106人评价</t>
-  </si>
-  <si>
-    <t>尊敬他人，尊敬你生活的这片土地，明白孤独是人生的常态。</t>
-  </si>
-  <si>
-    <t>哈利·波特与死亡圣器(下)</t>
-  </si>
-  <si>
-    <t>389060人评价</t>
-  </si>
-  <si>
-    <t>10年的完美句点。</t>
-  </si>
-  <si>
-    <t>幸福终点站</t>
-  </si>
-  <si>
-    <t>297758人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有时候幸福需要等一等。 </t>
-  </si>
-  <si>
-    <t>7号房的礼物</t>
-  </si>
-  <si>
-    <t>258812人评价</t>
-  </si>
-  <si>
-    <t>《我是山姆》的《美丽人生》。</t>
-  </si>
-  <si>
-    <t>杀人回忆</t>
-  </si>
-  <si>
-    <t>290341人评价</t>
-  </si>
-  <si>
-    <t>关于连环杀人悬案的集体回忆。</t>
-  </si>
-  <si>
-    <t>借东西的小人阿莉埃蒂</t>
-  </si>
-  <si>
-    <t>293060人评价</t>
-  </si>
-  <si>
-    <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
-  </si>
-  <si>
-    <t>神偷奶爸</t>
-  </si>
-  <si>
-    <t>543962人评价</t>
+    <t>时空恋旅人</t>
+  </si>
+  <si>
+    <t>381286人评价</t>
+  </si>
+  <si>
+    <t>把每天当作最后一天般珍惜度过，积极拥抱生活，就是幸福。</t>
+  </si>
+  <si>
+    <t>教父3</t>
+  </si>
+  <si>
+    <t>239684人评价</t>
+  </si>
+  <si>
+    <t>任何信念的力量，都无法改变命运。</t>
+  </si>
+  <si>
+    <t>电锯惊魂</t>
+  </si>
+  <si>
+    <t>348881人评价</t>
+  </si>
+  <si>
+    <t>真相就在眼前。</t>
+  </si>
+  <si>
+    <t>喜宴</t>
+  </si>
+  <si>
+    <t>234975人评价</t>
+  </si>
+  <si>
+    <t>中国家庭的喜怒哀乐忍。</t>
+  </si>
+  <si>
+    <t>人生果实</t>
+  </si>
+  <si>
+    <t>87242人评价</t>
+  </si>
+  <si>
+    <t>土壤没有落叶不会肥沃，没有了你就不算人生。</t>
+  </si>
+  <si>
+    <t>天书奇谭</t>
+  </si>
+  <si>
+    <t>139835人评价</t>
+  </si>
+  <si>
+    <t>传奇的年代，醉人的童话。</t>
+  </si>
+  <si>
+    <t>谍影重重3</t>
+  </si>
+  <si>
+    <t>302541人评价</t>
+  </si>
+  <si>
+    <t>像吃了苏打饼一样干脆的电影。</t>
+  </si>
+  <si>
+    <t>英雄本色</t>
+  </si>
+  <si>
+    <t>347921人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英雄泪短，兄弟情长。 </t>
+  </si>
+  <si>
+    <t>被解救的姜戈</t>
+  </si>
+  <si>
+    <t>428777人评价</t>
+  </si>
+  <si>
+    <t>热血沸腾，那个低俗、性感的无耻混蛋又来了。</t>
+  </si>
+  <si>
+    <t>岁月神偷</t>
+  </si>
+  <si>
+    <t>449769人评价</t>
+  </si>
+  <si>
+    <t>岁月流逝，来日可追。</t>
+  </si>
+  <si>
+    <t>七武士</t>
+  </si>
+  <si>
+    <t>130647人评价</t>
+  </si>
+  <si>
+    <t>时代悲歌。</t>
+  </si>
+  <si>
+    <t>哪吒闹海</t>
+  </si>
+  <si>
+    <t>169980人评价</t>
+  </si>
+  <si>
+    <t>想你时你在闹海。</t>
+  </si>
+  <si>
+    <t>我是山姆</t>
+  </si>
+  <si>
+    <t>208198人评价</t>
+  </si>
+  <si>
+    <t>爱并不需要智商 。</t>
+  </si>
+  <si>
+    <t>疯狂原始人</t>
+  </si>
+  <si>
+    <t>608731人评价</t>
+  </si>
+  <si>
+    <t>老少皆宜，这就是好莱坞动画的魅力。</t>
+  </si>
+  <si>
+    <t>纵横四海</t>
+  </si>
+  <si>
+    <t>282080人评价</t>
+  </si>
+  <si>
+    <t>香港浪漫主义警匪动作片的巅峰之作。</t>
+  </si>
+  <si>
+    <t>头号玩家</t>
+  </si>
+  <si>
+    <t>993792人评价</t>
+  </si>
+  <si>
+    <t>写给影迷，动漫迷和游戏迷的一封情书。</t>
+  </si>
+  <si>
+    <t>三块广告牌</t>
+  </si>
+  <si>
+    <t>594183人评价</t>
+  </si>
+  <si>
+    <t>怼天怼地，你走后，她与世界为敌。</t>
+  </si>
+  <si>
+    <t>心迷宫</t>
+  </si>
+  <si>
+    <t>340541人评价</t>
+  </si>
+  <si>
+    <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
+  </si>
+  <si>
+    <t>萤火虫之墓</t>
+  </si>
+  <si>
+    <t>315043人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幸福是生生不息，却难以触及的远。 </t>
+  </si>
+  <si>
+    <t>达拉斯买家俱乐部</t>
+  </si>
+  <si>
+    <t>316752人评价</t>
+  </si>
+  <si>
+    <t>Jared Leto的腿比女人还美！</t>
+  </si>
+  <si>
+    <t>釜山行</t>
+  </si>
+  <si>
+    <t>779057人评价</t>
   </si>
   <si>
     <t>8.5</t>
   </si>
   <si>
-    <t>Mr. I Don't Care其实也有Care的时候。</t>
-  </si>
-  <si>
-    <t>蝙蝠侠：黑暗骑士崛起</t>
-  </si>
-  <si>
-    <t>397049人评价</t>
-  </si>
-  <si>
-    <t>诺兰就是保证。</t>
-  </si>
-  <si>
-    <t>萤火之森</t>
-  </si>
-  <si>
-    <t>243121人评价</t>
-  </si>
-  <si>
-    <t>触不到的恋人。</t>
-  </si>
-  <si>
-    <t>唐伯虎点秋香</t>
-  </si>
-  <si>
-    <t>512446人评价</t>
-  </si>
-  <si>
-    <t>华太师是黄霑，吴镇宇四大才子之一。</t>
-  </si>
-  <si>
-    <t>超能陆战队</t>
-  </si>
-  <si>
-    <t>534410人评价</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>Balalala~~~</t>
-  </si>
-  <si>
-    <t>怪兽电力公司</t>
-  </si>
-  <si>
-    <t>345278人评价</t>
-  </si>
-  <si>
-    <t>不要给它起名字，起了名字就有感情了。</t>
-  </si>
-  <si>
-    <t>岁月神偷</t>
-  </si>
-  <si>
-    <t>382915人评价</t>
-  </si>
-  <si>
-    <t>岁月流逝，来日可追。</t>
-  </si>
-  <si>
-    <t>无人知晓</t>
-  </si>
-  <si>
-    <t>121804人评价</t>
-  </si>
-  <si>
-    <t>我的平常生活就是他人的幸福。</t>
-  </si>
-  <si>
-    <t>电锯惊魂</t>
-  </si>
-  <si>
-    <t>272824人评价</t>
-  </si>
-  <si>
-    <t>真相就在眼前。</t>
-  </si>
-  <si>
-    <t>七武士</t>
-  </si>
-  <si>
-    <t>104798人评价</t>
-  </si>
-  <si>
-    <t>时代悲歌。</t>
-  </si>
-  <si>
-    <t>谍影重重3</t>
-  </si>
-  <si>
-    <t>244206人评价</t>
-  </si>
-  <si>
-    <t>像吃了苏打饼一样干脆的电影。</t>
+    <t>揭露人性的丧尸题材力作。</t>
   </si>
   <si>
     <t>真爱至上</t>
   </si>
   <si>
-    <t>417407人评价</t>
+    <t>513872人评价</t>
   </si>
   <si>
     <t>爱，是个动词。</t>
   </si>
   <si>
-    <t>疯狂原始人</t>
-  </si>
-  <si>
-    <t>496253人评价</t>
-  </si>
-  <si>
-    <t>老少皆宜，这就是好莱坞动画的魅力。</t>
-  </si>
-  <si>
-    <t>喜宴</t>
-  </si>
-  <si>
-    <t>187500人评价</t>
-  </si>
-  <si>
-    <t>中国家庭的喜怒哀乐忍。</t>
-  </si>
-  <si>
-    <t>英雄本色</t>
-  </si>
-  <si>
-    <t>260507人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">英雄泪短，兄弟情长。 </t>
+    <t>荒蛮故事</t>
+  </si>
+  <si>
+    <t>289182人评价</t>
+  </si>
+  <si>
+    <t>始于荒诞，止于更荒诞。</t>
   </si>
   <si>
     <t>东邪西毒</t>
   </si>
   <si>
-    <t>347240人评价</t>
+    <t>426662人评价</t>
   </si>
   <si>
     <t>电影诗。</t>
   </si>
   <si>
-    <t>萤火虫之墓</t>
-  </si>
-  <si>
-    <t>261444人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">幸福是生生不息，却难以触及的远。 </t>
-  </si>
-  <si>
     <t>贫民窟的百万富翁</t>
   </si>
   <si>
-    <t>484649人评价</t>
+    <t>562339人评价</t>
   </si>
   <si>
     <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
   </si>
   <si>
-    <t>血战钢锯岭</t>
-  </si>
-  <si>
-    <t>450305人评价</t>
-  </si>
-  <si>
-    <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
+    <t>记忆碎片</t>
+  </si>
+  <si>
+    <t>432353人评价</t>
+  </si>
+  <si>
+    <t>一个针管引发的血案。</t>
+  </si>
+  <si>
+    <t>爆裂鼓手</t>
+  </si>
+  <si>
+    <t>388157人评价</t>
+  </si>
+  <si>
+    <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
+  </si>
+  <si>
+    <t>你的名字。</t>
+  </si>
+  <si>
+    <t>957535人评价</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>穿越错位的时空，仰望陨落的星辰，你没留下你的名字，我却无法忘记那句“我爱你”。</t>
   </si>
   <si>
     <t>黑天鹅</t>
   </si>
   <si>
-    <t>532035人评价</t>
+    <t>625032人评价</t>
   </si>
   <si>
     <t>黑暗之美。</t>
   </si>
   <si>
-    <t>记忆碎片</t>
-  </si>
-  <si>
-    <t>361120人评价</t>
-  </si>
-  <si>
-    <t>一个针管引发的血案。</t>
-  </si>
-  <si>
-    <t>傲慢与偏见</t>
-  </si>
-  <si>
-    <t>410512人评价</t>
-  </si>
-  <si>
-    <t>爱是摈弃傲慢与偏见之后的曙光。</t>
-  </si>
-  <si>
-    <t>时空恋旅人</t>
-  </si>
-  <si>
-    <t>287823人评价</t>
-  </si>
-  <si>
-    <t>把每天当作最后一天般珍惜度过，积极拥抱生活，就是幸福。</t>
-  </si>
-  <si>
-    <t>心迷宫</t>
-  </si>
-  <si>
-    <t>261940人评价</t>
-  </si>
-  <si>
-    <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
-  </si>
-  <si>
-    <t>纵横四海</t>
-  </si>
-  <si>
-    <t>214690人评价</t>
-  </si>
-  <si>
-    <t>香港浪漫主义警匪动作片的巅峰之作。</t>
-  </si>
-  <si>
-    <t>荒蛮故事</t>
-  </si>
-  <si>
-    <t>211390人评价</t>
-  </si>
-  <si>
-    <t>始于荒诞，止于更荒诞。</t>
+    <t>花样年华</t>
+  </si>
+  <si>
+    <t>397551人评价</t>
+  </si>
+  <si>
+    <t>偷情本没有这样美。</t>
+  </si>
+  <si>
+    <t>卢旺达饭店</t>
+  </si>
+  <si>
+    <t>201771人评价</t>
+  </si>
+  <si>
+    <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
+  </si>
+  <si>
+    <t>哈利·波特与阿兹卡班的囚徒</t>
+  </si>
+  <si>
+    <t>378948人评价</t>
+  </si>
+  <si>
+    <t>不一样的导演，不一样的哈利·波特。</t>
+  </si>
+  <si>
+    <t>忠犬八公物语</t>
+  </si>
+  <si>
+    <t>128179人评价</t>
+  </si>
+  <si>
+    <t>养狗三日，便会对你终其一生。</t>
+  </si>
+  <si>
+    <t>黑客帝国3：矩阵革命</t>
+  </si>
+  <si>
+    <t>289080人评价</t>
+  </si>
+  <si>
+    <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
+  </si>
+  <si>
+    <t>头脑特工队</t>
+  </si>
+  <si>
+    <t>409278人评价</t>
+  </si>
+  <si>
+    <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
+  </si>
+  <si>
+    <t>模仿游戏</t>
+  </si>
+  <si>
+    <t>423611人评价</t>
+  </si>
+  <si>
+    <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
+  </si>
+  <si>
+    <t>一个叫欧维的男人决定去死</t>
+  </si>
+  <si>
+    <t>252262人评价</t>
+  </si>
+  <si>
+    <t>惠及一生的美丽。</t>
   </si>
   <si>
     <t>雨人</t>
   </si>
   <si>
-    <t>259363人评价</t>
+    <t>303826人评价</t>
   </si>
   <si>
     <t>生活在自己的世界里，也可以让周围的人显得可笑和渺小。</t>
   </si>
   <si>
-    <t>教父3</t>
-  </si>
-  <si>
-    <t>182396人评价</t>
-  </si>
-  <si>
-    <t>任何信念的力量，都无法改变命运。</t>
-  </si>
-  <si>
-    <t>达拉斯买家俱乐部</t>
-  </si>
-  <si>
-    <t>254034人评价</t>
-  </si>
-  <si>
-    <t>Jared Leto的腿比女人还美！</t>
-  </si>
-  <si>
-    <t>完美的世界</t>
-  </si>
-  <si>
-    <t>115496人评价</t>
-  </si>
-  <si>
-    <t>坏人的好总是比好人的好来得更感人。</t>
-  </si>
-  <si>
-    <t>玩具总动员3</t>
-  </si>
-  <si>
-    <t>255592人评价</t>
-  </si>
-  <si>
-    <t>跨度十五年的欢乐与泪水。</t>
-  </si>
-  <si>
-    <t>花样年华</t>
-  </si>
-  <si>
-    <t>323997人评价</t>
-  </si>
-  <si>
-    <t>偷情本没有这样美。</t>
-  </si>
-  <si>
-    <t>卢旺达饭店</t>
-  </si>
-  <si>
-    <t>155886人评价</t>
-  </si>
-  <si>
-    <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
-  </si>
-  <si>
-    <t>何以为家</t>
-  </si>
-  <si>
-    <t>208621人评价</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>海蒂和爷爷</t>
-  </si>
-  <si>
-    <t>109368人评价</t>
-  </si>
-  <si>
-    <t>如果生活中有什么使你感到快乐，那就去做吧！不要管别人说什么。</t>
+    <t>你看起来好像很好吃</t>
+  </si>
+  <si>
+    <t>242186人评价</t>
+  </si>
+  <si>
+    <t>感情不分食草或者食肉。</t>
+  </si>
+  <si>
+    <t>未麻的部屋</t>
+  </si>
+  <si>
+    <t>182395人评价</t>
+  </si>
+  <si>
+    <t>好的剧本是，就算你猜到了结局也猜不到全部。</t>
+  </si>
+  <si>
+    <t>无敌破坏王</t>
+  </si>
+  <si>
+    <t>372845人评价</t>
+  </si>
+  <si>
+    <t>迪士尼和皮克斯拿错剧本的产物。</t>
+  </si>
+  <si>
+    <t>哈利·波特与密室</t>
+  </si>
+  <si>
+    <t>397997人评价</t>
+  </si>
+  <si>
+    <t>魔法的密室之门已打开...</t>
+  </si>
+  <si>
+    <t>恋恋笔记本</t>
+  </si>
+  <si>
+    <t>462892人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">爱情没有那么多借口，如果不能圆满，只能说明爱的不够。 </t>
+  </si>
+  <si>
+    <t>冰川时代</t>
+  </si>
+  <si>
+    <t>447908人评价</t>
+  </si>
+  <si>
+    <t>松鼠才是角儿。</t>
+  </si>
+  <si>
+    <t>海街日记</t>
+  </si>
+  <si>
+    <t>271386人评价</t>
+  </si>
+  <si>
+    <t>是枝裕和的家庭习作。</t>
+  </si>
+  <si>
+    <t>新世界</t>
+  </si>
+  <si>
+    <t>222235人评价</t>
+  </si>
+  <si>
+    <t>要做就做得狠一点，这样才能活下去。</t>
   </si>
   <si>
     <t>海边的曼彻斯特</t>
   </si>
   <si>
-    <t>283107人评价</t>
+    <t>346701人评价</t>
   </si>
   <si>
     <t>我们都有权利不与自己的过去和解。</t>
   </si>
   <si>
-    <t>被解救的姜戈</t>
-  </si>
-  <si>
-    <t>341179人评价</t>
-  </si>
-  <si>
-    <t>热血沸腾，那个低俗、性感的无耻混蛋又来了。</t>
-  </si>
-  <si>
-    <t>三块广告牌</t>
-  </si>
-  <si>
-    <t>466797人评价</t>
-  </si>
-  <si>
-    <t>怼天怼地，你走后，她与世界为敌。</t>
-  </si>
-  <si>
-    <t>恋恋笔记本</t>
-  </si>
-  <si>
-    <t>371170人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">爱情没有那么多借口，如果不能圆满，只能说明爱的不够。 </t>
-  </si>
-  <si>
-    <t>你看起来好像很好吃</t>
-  </si>
-  <si>
-    <t>194224人评价</t>
-  </si>
-  <si>
-    <t>感情不分食草或者食肉。</t>
+    <t>二十二</t>
+  </si>
+  <si>
+    <t>208942人评价</t>
+  </si>
+  <si>
+    <t>有一些东西不应该被遗忘。</t>
+  </si>
+  <si>
+    <t>虎口脱险</t>
+  </si>
+  <si>
+    <t>166219人评价</t>
+  </si>
+  <si>
+    <t>永远看不腻的喜剧。</t>
+  </si>
+  <si>
+    <t>房间</t>
+  </si>
+  <si>
+    <t>279240人评价</t>
+  </si>
+  <si>
+    <t>被偷走的岁月，被伤害的生命，被禁锢的灵魂，终将被希望和善意救赎。</t>
+  </si>
+  <si>
+    <t>恐怖游轮</t>
+  </si>
+  <si>
+    <t>553410人评价</t>
+  </si>
+  <si>
+    <t>不要企图在重复中寻找已经失去的爱。</t>
+  </si>
+  <si>
+    <t>惊魂记</t>
+  </si>
+  <si>
+    <t>159235人评价</t>
+  </si>
+  <si>
+    <t>故事的反转与反转，分裂电影的始祖。</t>
+  </si>
+  <si>
+    <t>奇迹男孩</t>
+  </si>
+  <si>
+    <t>406207人评价</t>
+  </si>
+  <si>
+    <t>世界不完美，爱会有奇迹。</t>
+  </si>
+  <si>
+    <t>魔女宅急便</t>
+  </si>
+  <si>
+    <t>328671人评价</t>
+  </si>
+  <si>
+    <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>308431人评价</t>
+  </si>
+  <si>
+    <t>对爱的执着，可以超越一切。</t>
+  </si>
+  <si>
+    <t>雨中曲</t>
+  </si>
+  <si>
+    <t>144990人评价</t>
+  </si>
+  <si>
+    <t>骨灰级歌舞片。</t>
+  </si>
+  <si>
+    <t>疯狂的石头</t>
+  </si>
+  <si>
+    <t>560325人评价</t>
+  </si>
+  <si>
+    <t>中国版《两杆大烟枪》。</t>
+  </si>
+  <si>
+    <t>罗生门</t>
+  </si>
+  <si>
+    <t>213572人评价</t>
+  </si>
+  <si>
+    <t>人生的N种可能性。</t>
   </si>
   <si>
     <t>海洋</t>
   </si>
   <si>
-    <t>114224人评价</t>
+    <t>128472人评价</t>
   </si>
   <si>
     <t>大海啊，不全是水。</t>
   </si>
   <si>
-    <t>虎口脱险</t>
-  </si>
-  <si>
-    <t>135146人评价</t>
-  </si>
-  <si>
-    <t>永远看不腻的喜剧。</t>
-  </si>
-  <si>
-    <t>头脑特工队</t>
-  </si>
-  <si>
-    <t>323114人评价</t>
-  </si>
-  <si>
-    <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
-  </si>
-  <si>
-    <t>你的名字。</t>
-  </si>
-  <si>
-    <t>711072人评价</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>穿越错位的时空，仰望陨落的星辰，你没留下你的名字，我却无法忘记那句“我爱你”。</t>
-  </si>
-  <si>
-    <t>二十二</t>
-  </si>
-  <si>
-    <t>159056人评价</t>
-  </si>
-  <si>
-    <t>有一些东西不应该被遗忘。</t>
-  </si>
-  <si>
-    <t>无敌破坏王</t>
-  </si>
-  <si>
-    <t>291012人评价</t>
-  </si>
-  <si>
-    <t>迪士尼和皮克斯拿错剧本的产物。</t>
-  </si>
-  <si>
-    <t>冰川时代</t>
-  </si>
-  <si>
-    <t>363189人评价</t>
-  </si>
-  <si>
-    <t>松鼠才是角儿。</t>
-  </si>
-  <si>
-    <t>我是山姆</t>
-  </si>
-  <si>
-    <t>144932人评价</t>
-  </si>
-  <si>
-    <t>爱并不需要智商 。</t>
-  </si>
-  <si>
-    <t>雨中曲</t>
-  </si>
-  <si>
-    <t>120227人评价</t>
-  </si>
-  <si>
-    <t>骨灰级歌舞片。</t>
+    <t>爱在午夜降临前</t>
+  </si>
+  <si>
+    <t>220191人评价</t>
+  </si>
+  <si>
+    <t>所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。</t>
+  </si>
+  <si>
+    <t>终结者2：审判日</t>
+  </si>
+  <si>
+    <t>246858人评价</t>
+  </si>
+  <si>
+    <t>少见的超越首部的续集，动作片中的经典。</t>
+  </si>
+  <si>
+    <t>小偷家族</t>
+  </si>
+  <si>
+    <t>570745人评价</t>
+  </si>
+  <si>
+    <t>我们组成了家。</t>
+  </si>
+  <si>
+    <t>魂断蓝桥</t>
+  </si>
+  <si>
+    <t>194890人评价</t>
+  </si>
+  <si>
+    <t>中国式内在的美国电影。</t>
   </si>
   <si>
     <t>燃情岁月</t>
   </si>
   <si>
-    <t>179661人评价</t>
+    <t>211120人评价</t>
   </si>
   <si>
     <t>传奇，不是每个人都可以拥有。</t>
   </si>
   <si>
-    <t>爆裂鼓手</t>
-  </si>
-  <si>
-    <t>312186人评价</t>
-  </si>
-  <si>
-    <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
-  </si>
-  <si>
-    <t>未麻的部屋</t>
-  </si>
-  <si>
-    <t>139228人评价</t>
-  </si>
-  <si>
-    <t>好的剧本是，就算你猜到了结局也猜不到全部。</t>
-  </si>
-  <si>
-    <t>人工智能</t>
-  </si>
-  <si>
-    <t>249438人评价</t>
-  </si>
-  <si>
-    <t>对爱的执着，可以超越一切。</t>
-  </si>
-  <si>
-    <t>模仿游戏</t>
-  </si>
-  <si>
-    <t>340432人评价</t>
-  </si>
-  <si>
-    <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
-  </si>
-  <si>
-    <t>一个叫欧维的男人决定去死</t>
-  </si>
-  <si>
-    <t>184418人评价</t>
-  </si>
-  <si>
-    <t>惠及一生的美丽。</t>
+    <t>初恋这件小事</t>
+  </si>
+  <si>
+    <t>748470人评价</t>
+  </si>
+  <si>
+    <t>黑小鸭速效美白记。</t>
   </si>
   <si>
     <t>穿越时空的少女</t>
   </si>
   <si>
-    <t>239480人评价</t>
+    <t>289943人评价</t>
   </si>
   <si>
     <t xml:space="preserve">爱上未来的你。 </t>
   </si>
   <si>
-    <t>魂断蓝桥</t>
-  </si>
-  <si>
-    <t>159761人评价</t>
-  </si>
-  <si>
-    <t>中国式内在的美国电影。</t>
-  </si>
-  <si>
-    <t>房间</t>
-  </si>
-  <si>
-    <t>219293人评价</t>
-  </si>
-  <si>
-    <t>被偷走的岁月，被伤害的生命，被禁锢的灵魂，终将被希望和善意救赎。</t>
-  </si>
-  <si>
-    <t>忠犬八公物语</t>
-  </si>
-  <si>
-    <t>90642人评价</t>
-  </si>
-  <si>
-    <t>养狗三日，便会对你终其一生。</t>
+    <t>可可西里</t>
+  </si>
+  <si>
+    <t>204590人评价</t>
+  </si>
+  <si>
+    <t>坚硬的信仰。</t>
+  </si>
+  <si>
+    <t>绿里奇迹</t>
+  </si>
+  <si>
+    <t>186693人评价</t>
+  </si>
+  <si>
+    <t>天使暂时离开。</t>
+  </si>
+  <si>
+    <t>2001太空漫游</t>
+  </si>
+  <si>
+    <t>194611人评价</t>
+  </si>
+  <si>
+    <t>现代科幻电影的开山之作，最伟大导演的最伟大影片。</t>
+  </si>
+  <si>
+    <t>牯岭街少年杀人事件</t>
+  </si>
+  <si>
+    <t>179154人评价</t>
+  </si>
+  <si>
+    <t>弱者送给弱者的一刀。</t>
+  </si>
+  <si>
+    <t>完美陌生人</t>
+  </si>
+  <si>
+    <t>393946人评价</t>
+  </si>
+  <si>
+    <t>来啊，互相伤害啊！</t>
+  </si>
+  <si>
+    <t>无耻混蛋</t>
+  </si>
+  <si>
+    <t>346534人评价</t>
+  </si>
+  <si>
+    <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
+  </si>
+  <si>
+    <t>城市之光</t>
+  </si>
+  <si>
+    <t>85865人评价</t>
+  </si>
+  <si>
+    <t>永远的小人物，伟大的卓别林。</t>
+  </si>
+  <si>
+    <t>阿飞正传</t>
+  </si>
+  <si>
+    <t>351671人评价</t>
+  </si>
+  <si>
+    <t>王家卫是一种风格，张国荣是一个代表。</t>
+  </si>
+  <si>
+    <t>新龙门客栈</t>
+  </si>
+  <si>
+    <t>310777人评价</t>
+  </si>
+  <si>
+    <t>嬉笑怒骂，调风动月。</t>
+  </si>
+  <si>
+    <t>源代码</t>
+  </si>
+  <si>
+    <t>595051人评价</t>
+  </si>
+  <si>
+    <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
+  </si>
+  <si>
+    <t>香水</t>
+  </si>
+  <si>
+    <t>412634人评价</t>
+  </si>
+  <si>
+    <t>一个单凭体香达到高潮的男人。</t>
+  </si>
+  <si>
+    <t>谍影重重2</t>
+  </si>
+  <si>
+    <t>255478人评价</t>
+  </si>
+  <si>
+    <t>谁说王家卫镜头很晃？</t>
+  </si>
+  <si>
+    <t>青蛇</t>
+  </si>
+  <si>
+    <t>358077人评价</t>
+  </si>
+  <si>
+    <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
+  </si>
+  <si>
+    <t>谍影重重</t>
+  </si>
+  <si>
+    <t>305393人评价</t>
+  </si>
+  <si>
+    <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
+  </si>
+  <si>
+    <t>地球上的星星</t>
+  </si>
+  <si>
+    <t>146293人评价</t>
+  </si>
+  <si>
+    <t>天使保护事件始末。</t>
+  </si>
+  <si>
+    <t>战争之王</t>
+  </si>
+  <si>
+    <t>257225人评价</t>
+  </si>
+  <si>
+    <t>做一颗让别人需要你的棋子。</t>
   </si>
   <si>
     <t>猜火车</t>
   </si>
   <si>
-    <t>299398人评价</t>
+    <t>335264人评价</t>
   </si>
   <si>
     <t xml:space="preserve">不可猜的青春迷笛。 </t>
   </si>
   <si>
-    <t>魔女宅急便</t>
-  </si>
-  <si>
-    <t>266711人评价</t>
-  </si>
-  <si>
-    <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
-  </si>
-  <si>
-    <t>恐怖游轮</t>
-  </si>
-  <si>
-    <t>439821人评价</t>
-  </si>
-  <si>
-    <t>不要企图在重复中寻找已经失去的爱。</t>
-  </si>
-  <si>
-    <t>罗生门</t>
-  </si>
-  <si>
-    <t>168558人评价</t>
-  </si>
-  <si>
-    <t>人生的N种可能性。</t>
-  </si>
-  <si>
-    <t>完美陌生人</t>
-  </si>
-  <si>
-    <t>319885人评价</t>
-  </si>
-  <si>
-    <t>来啊，互相伤害啊！</t>
-  </si>
-  <si>
-    <t>哪吒闹海</t>
-  </si>
-  <si>
-    <t>115729人评价</t>
-  </si>
-  <si>
-    <t>想你时你在闹海。</t>
-  </si>
-  <si>
-    <t>阿飞正传</t>
-  </si>
-  <si>
-    <t>283312人评价</t>
-  </si>
-  <si>
-    <t>王家卫是一种风格，张国荣是一个代表。</t>
-  </si>
-  <si>
-    <t>海街日记</t>
-  </si>
-  <si>
-    <t>200659人评价</t>
-  </si>
-  <si>
-    <t>是枝裕和的家庭习作。</t>
-  </si>
-  <si>
-    <t>黑客帝国3：矩阵革命</t>
-  </si>
-  <si>
-    <t>214020人评价</t>
-  </si>
-  <si>
-    <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
-  </si>
-  <si>
-    <t>香水</t>
-  </si>
-  <si>
-    <t>350657人评价</t>
-  </si>
-  <si>
-    <t>一个单凭体香达到高潮的男人。</t>
+    <t>血钻</t>
+  </si>
+  <si>
+    <t>247316人评价</t>
+  </si>
+  <si>
+    <t>每个美丽事物背后都是滴血的现实。</t>
+  </si>
+  <si>
+    <t>色，戒</t>
+  </si>
+  <si>
+    <t>469420人评价</t>
+  </si>
+  <si>
+    <t>假戏真情，爱欲深海</t>
+  </si>
+  <si>
+    <t>遗愿清单</t>
+  </si>
+  <si>
+    <t>256191人评价</t>
+  </si>
+  <si>
+    <t>用剩余不多的时间，去燃烧整个生命。</t>
+  </si>
+  <si>
+    <t>大佛普拉斯</t>
+  </si>
+  <si>
+    <t>263217人评价</t>
+  </si>
+  <si>
+    <t>人们可以登上月球，却永远无法探索人们内心的宇宙。</t>
+  </si>
+  <si>
+    <t>步履不停</t>
+  </si>
+  <si>
+    <t>175777人评价</t>
+  </si>
+  <si>
+    <t>日本的家庭电影已经是世界巅峰了，步履不停是巅峰中的佳作。</t>
   </si>
   <si>
     <t>朗读者</t>
   </si>
   <si>
-    <t>326656人评价</t>
+    <t>365695人评价</t>
   </si>
   <si>
     <t xml:space="preserve">当爱情跨越年龄的界限，它似乎能变得更久远一点，成为一种责任，一种水到渠成的相濡以沫。 </t>
   </si>
   <si>
+    <t>疯狂的麦克斯4：狂暴之路</t>
+  </si>
+  <si>
+    <t>359816人评价</t>
+  </si>
+  <si>
+    <t>“多么美好的一天！”轰轰轰砰咚，啪哒哒哒轰隆隆，磅~</t>
+  </si>
+  <si>
+    <t>彗星来的那一夜</t>
+  </si>
+  <si>
+    <t>349781人评价</t>
+  </si>
+  <si>
+    <t>小成本大魅力。</t>
+  </si>
+  <si>
     <t>浪潮</t>
   </si>
   <si>
-    <t>168055人评价</t>
+    <t>199552人评价</t>
   </si>
   <si>
     <t>世界离独裁只有五天。</t>
   </si>
   <si>
-    <t>可可西里</t>
-  </si>
-  <si>
-    <t>165188人评价</t>
-  </si>
-  <si>
-    <t>坚硬的信仰。</t>
-  </si>
-  <si>
-    <t>谍影重重2</t>
-  </si>
-  <si>
-    <t>210613人评价</t>
-  </si>
-  <si>
-    <t>谁说王家卫镜头很晃？</t>
-  </si>
-  <si>
-    <t>天书奇谭</t>
-  </si>
-  <si>
-    <t>81117人评价</t>
-  </si>
-  <si>
-    <t>传奇的年代，醉人的童话。</t>
-  </si>
-  <si>
-    <t>谍影重重</t>
-  </si>
-  <si>
-    <t>251088人评价</t>
-  </si>
-  <si>
-    <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
-  </si>
-  <si>
-    <t>牯岭街少年杀人事件</t>
-  </si>
-  <si>
-    <t>142617人评价</t>
-  </si>
-  <si>
-    <t>弱者送给弱者的一刀。</t>
-  </si>
-  <si>
-    <t>战争之王</t>
-  </si>
-  <si>
-    <t>217365人评价</t>
-  </si>
-  <si>
-    <t>做一颗让别人需要你的棋子。</t>
-  </si>
-  <si>
-    <t>地球上的星星</t>
-  </si>
-  <si>
-    <t>114637人评价</t>
-  </si>
-  <si>
-    <t>天使保护事件始末。</t>
-  </si>
-  <si>
-    <t>惊魂记</t>
-  </si>
-  <si>
-    <t>114783人评价</t>
-  </si>
-  <si>
-    <t>故事的反转与反转，分裂电影的始祖。</t>
-  </si>
-  <si>
-    <t>青蛇</t>
-  </si>
-  <si>
-    <t>292311人评价</t>
-  </si>
-  <si>
-    <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
-  </si>
-  <si>
-    <t>疯狂的石头</t>
-  </si>
-  <si>
-    <t>432577人评价</t>
-  </si>
-  <si>
-    <t>中国版《两杆大烟枪》。</t>
-  </si>
-  <si>
-    <t>初恋这件小事</t>
-  </si>
-  <si>
-    <t>606351人评价</t>
+    <t>小萝莉的猴神大叔</t>
+  </si>
+  <si>
+    <t>345841人评价</t>
+  </si>
+  <si>
+    <t>宝莱坞的萝莉与大叔。</t>
+  </si>
+  <si>
+    <t>再次出发之纽约遇见你</t>
+  </si>
+  <si>
+    <t>295697人评价</t>
+  </si>
+  <si>
+    <t>爱我就给我看你的播放列表。</t>
+  </si>
+  <si>
+    <t>聚焦</t>
+  </si>
+  <si>
+    <t>204731人评价</t>
+  </si>
+  <si>
+    <t>新闻人的理性求真。</t>
+  </si>
+  <si>
+    <t>驴得水</t>
+  </si>
+  <si>
+    <t>646116人评价</t>
   </si>
   <si>
     <t>8.3</t>
   </si>
   <si>
-    <t>黑小鸭速效美白记。</t>
-  </si>
-  <si>
-    <t>终结者2：审判日</t>
-  </si>
-  <si>
-    <t>190413人评价</t>
-  </si>
-  <si>
-    <t>少见的超越首部的续集，动作片中的经典。</t>
-  </si>
-  <si>
-    <t>源代码</t>
-  </si>
-  <si>
-    <t>506491人评价</t>
-  </si>
-  <si>
-    <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
+    <t>过去的如果就让它过去了，未来只会越来越糟！</t>
+  </si>
+  <si>
+    <t>东京物语</t>
+  </si>
+  <si>
+    <t>88770人评价</t>
+  </si>
+  <si>
+    <t>东京那么大，如果有一天走失了，恐怕一辈子不能再相见。</t>
+  </si>
+  <si>
+    <t>追随</t>
+  </si>
+  <si>
+    <t>128640人评价</t>
+  </si>
+  <si>
+    <t>诺兰的牛逼来源于内心散发出的恐惧。</t>
   </si>
   <si>
     <t>一次别离</t>
   </si>
   <si>
-    <t>163586人评价</t>
+    <t>193070人评价</t>
   </si>
   <si>
     <t>只有有信仰的人才能说出事实真相。</t>
   </si>
   <si>
-    <t>步履不停</t>
-  </si>
-  <si>
-    <t>130605人评价</t>
-  </si>
-  <si>
-    <t>日本的家庭电影已经是世界巅峰了，步履不停是巅峰中的佳作。</t>
-  </si>
-  <si>
-    <t>追随</t>
-  </si>
-  <si>
-    <t>104559人评价</t>
-  </si>
-  <si>
-    <t>诺兰的牛逼来源于内心散发出的恐惧。</t>
-  </si>
-  <si>
-    <t>小萝莉的猴神大叔</t>
-  </si>
-  <si>
-    <t>253571人评价</t>
-  </si>
-  <si>
-    <t>宝莱坞的萝莉与大叔。</t>
-  </si>
-  <si>
-    <t>新龙门客栈</t>
-  </si>
-  <si>
-    <t>246634人评价</t>
-  </si>
-  <si>
-    <t>嬉笑怒骂，调风动月。</t>
-  </si>
-  <si>
-    <t>再次出发之纽约遇见你</t>
-  </si>
-  <si>
-    <t>234602人评价</t>
-  </si>
-  <si>
-    <t>爱我就给我看你的播放列表。</t>
-  </si>
-  <si>
-    <t>爱在午夜降临前</t>
-  </si>
-  <si>
-    <t>158947人评价</t>
-  </si>
-  <si>
-    <t>所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。</t>
-  </si>
-  <si>
-    <t>撞车</t>
-  </si>
-  <si>
-    <t>213439人评价</t>
-  </si>
-  <si>
-    <t>天使与魔鬼的冲撞。</t>
-  </si>
-  <si>
-    <t>无耻混蛋</t>
-  </si>
-  <si>
-    <t>282001人评价</t>
-  </si>
-  <si>
-    <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
-  </si>
-  <si>
-    <t>梦之安魂曲</t>
-  </si>
-  <si>
-    <t>140127人评价</t>
-  </si>
-  <si>
-    <t>一场没有春天的噩梦。</t>
-  </si>
-  <si>
-    <t>城市之光</t>
-  </si>
-  <si>
-    <t>61829人评价</t>
-  </si>
-  <si>
-    <t>永远的小人物，伟大的卓别林。</t>
-  </si>
-  <si>
-    <t>东京物语</t>
-  </si>
-  <si>
-    <t>68793人评价</t>
-  </si>
-  <si>
-    <t>东京那么大，如果有一天走失了，恐怕一辈子不能再相见。</t>
-  </si>
-  <si>
-    <t>功夫</t>
-  </si>
-  <si>
-    <t>428956人评价</t>
-  </si>
-  <si>
-    <t>警恶惩奸，维护世界和平这个任务就交给你了，好吗？</t>
-  </si>
-  <si>
-    <t>彗星来的那一夜</t>
-  </si>
-  <si>
-    <t>261235人评价</t>
-  </si>
-  <si>
-    <t>小成本大魅力。</t>
-  </si>
-  <si>
-    <t>绿里奇迹</t>
-  </si>
-  <si>
-    <t>139124人评价</t>
-  </si>
-  <si>
-    <t>天使暂时离开。</t>
-  </si>
-  <si>
-    <t>血钻</t>
-  </si>
-  <si>
-    <t>185141人评价</t>
-  </si>
-  <si>
-    <t>每个美丽事物背后都是滴血的现实。</t>
-  </si>
-  <si>
-    <t>2001太空漫游</t>
-  </si>
-  <si>
-    <t>140722人评价</t>
-  </si>
-  <si>
-    <t>现代科幻电影的开山之作，最伟大导演的最伟大影片。</t>
-  </si>
-  <si>
-    <t>奇迹男孩</t>
-  </si>
-  <si>
-    <t>300782人评价</t>
-  </si>
-  <si>
-    <t>世界不完美，爱会有奇迹。</t>
-  </si>
-  <si>
-    <t>聚焦</t>
-  </si>
-  <si>
-    <t>166394人评价</t>
-  </si>
-  <si>
-    <t>新闻人的理性求真。</t>
-  </si>
-  <si>
-    <t>这个男人来自地球</t>
-  </si>
-  <si>
-    <t>237308人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科幻真正的魅力不是视觉效果能取代的。 </t>
+    <t>千钧一发</t>
+  </si>
+  <si>
+    <t>168107人评价</t>
+  </si>
+  <si>
+    <t>一部能引人思考的科幻励志片。</t>
+  </si>
+  <si>
+    <t>我爱你</t>
+  </si>
+  <si>
+    <t>106547人评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">你要相信，这世上真的有爱存在，不管在什么年纪 </t>
+  </si>
+  <si>
+    <t>九品芝麻官</t>
+  </si>
+  <si>
+    <t>362293人评价</t>
+  </si>
+  <si>
+    <t>暂无评分</t>
+  </si>
+  <si>
+    <t>黑鹰坠落</t>
+  </si>
+  <si>
+    <t>204726人评价</t>
+  </si>
+  <si>
+    <t>还原真实而残酷的战争。</t>
+  </si>
+  <si>
+    <t>四个春天</t>
+  </si>
+  <si>
+    <t>114961人评价</t>
+  </si>
+  <si>
+    <t>来也匆匆去也匆匆，就这样风雨兼程。</t>
+  </si>
+  <si>
+    <t>哈利·波特与火焰杯</t>
+  </si>
+  <si>
+    <t>335691人评价</t>
+  </si>
+  <si>
+    <t>发条橙</t>
+  </si>
+  <si>
+    <t>275614人评价</t>
+  </si>
+  <si>
+    <t>我完全康复了。</t>
+  </si>
+  <si>
+    <t>网络谜踪</t>
+  </si>
+  <si>
+    <t>371738人评价</t>
   </si>
   <si>
     <t>E.T. 外星人</t>
   </si>
   <si>
-    <t>203520人评价</t>
+    <t>253288人评价</t>
   </si>
   <si>
     <t>生病的E.T.皮肤的颜色就像柿子饼。</t>
   </si>
   <si>
-    <t>末路狂花</t>
-  </si>
-  <si>
-    <t>132974人评价</t>
-  </si>
-  <si>
-    <t>没有了退路，只好飞向自由。</t>
-  </si>
-  <si>
-    <t>发条橙</t>
-  </si>
-  <si>
-    <t>230559人评价</t>
-  </si>
-  <si>
-    <t>我完全康复了。</t>
-  </si>
-  <si>
-    <t>变脸</t>
-  </si>
-  <si>
-    <t>264564人评价</t>
-  </si>
-  <si>
-    <t>当发哥的风衣、墨镜出现在了凯奇身上⋯⋯</t>
-  </si>
-  <si>
-    <t>勇闯夺命岛</t>
-  </si>
-  <si>
-    <t>176390人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类型片的极致。 </t>
-  </si>
-  <si>
-    <t>黑鹰坠落</t>
-  </si>
-  <si>
-    <t>161363人评价</t>
-  </si>
-  <si>
-    <t>还原真实而残酷的战争。</t>
-  </si>
-  <si>
-    <t>疯狂的麦克斯4：狂暴之路</t>
-  </si>
-  <si>
-    <t>279527人评价</t>
-  </si>
-  <si>
-    <t>“多么美好的一天！”轰轰轰砰咚，啪哒哒哒轰隆隆，磅~</t>
-  </si>
-  <si>
-    <t>黄金三镖客</t>
-  </si>
-  <si>
-    <t>68198人评价</t>
-  </si>
-  <si>
-    <t>最棒的西部片。</t>
-  </si>
-  <si>
-    <t>秒速5厘米</t>
-  </si>
-  <si>
-    <t>395974人评价</t>
-  </si>
-  <si>
-    <t>青春就是放弃和怀念。</t>
-  </si>
-  <si>
-    <t>国王的演讲</t>
-  </si>
-  <si>
-    <t>423240人评价</t>
-  </si>
-  <si>
-    <t>皇上无话儿。</t>
-  </si>
-  <si>
-    <t>我爱你</t>
-  </si>
-  <si>
-    <t>80695人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">你要相信，这世上真的有爱存在，不管在什么年纪 </t>
-  </si>
-  <si>
-    <t>非常嫌疑犯</t>
-  </si>
-  <si>
-    <t>156074人评价</t>
-  </si>
-  <si>
-    <t>我不信仰上帝，但我敬畏上帝。</t>
-  </si>
-  <si>
-    <t>卡萨布兰卡</t>
-  </si>
-  <si>
-    <t>155218人评价</t>
-  </si>
-  <si>
-    <t>世界上有那么多女人那么多酒馆，但她偏偏走进我的这家。</t>
-  </si>
-  <si>
-    <t>千钧一发</t>
-  </si>
-  <si>
-    <t>123719人评价</t>
-  </si>
-  <si>
-    <t>一部能引人思考的科幻励志片。</t>
-  </si>
-  <si>
-    <t>遗愿清单</t>
-  </si>
-  <si>
-    <t>179807人评价</t>
-  </si>
-  <si>
-    <t>用剩余不多的时间，去燃烧整个生命。</t>
-  </si>
-  <si>
-    <t>美国丽人</t>
-  </si>
-  <si>
-    <t>230729人评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每个人的内心都是深不可测的大海。 </t>
-  </si>
-  <si>
-    <t>驴得水</t>
-  </si>
-  <si>
-    <t>476136人评价</t>
-  </si>
-  <si>
-    <t>过去的如果就让它过去了，未来只会越来越糟！</t>
-  </si>
-  <si>
-    <t>新世界</t>
-  </si>
-  <si>
-    <t>132950人评价</t>
-  </si>
-  <si>
-    <t>要做就做得狠一点，这样才能活下去。</t>
-  </si>
-  <si>
-    <t>釜山行</t>
-  </si>
-  <si>
-    <t>515842人评价</t>
-  </si>
-  <si>
-    <t>四个春天</t>
-  </si>
-  <si>
-    <t>79603人评价</t>
-  </si>
-  <si>
-    <t>来也匆匆去也匆匆，就这样风雨兼程。</t>
-  </si>
-  <si>
-    <t>荒岛余生</t>
-  </si>
-  <si>
-    <t>177987人评价</t>
-  </si>
-  <si>
-    <t>一个人的独角戏。</t>
+    <t>黑客帝国2：重装上阵</t>
+  </si>
+  <si>
+    <t>248181人评价</t>
+  </si>
+  <si>
+    <t>一个精彩的世界观正在缓缓建立。</t>
   </si>
 </sst>
 </file>
@@ -2669,63 +2669,63 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -2739,7 +2739,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -2753,7 +2753,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
@@ -2767,49 +2767,49 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
@@ -2823,189 +2823,189 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>84</v>
@@ -3019,7 +3019,7 @@
         <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>87</v>
@@ -3033,7 +3033,7 @@
         <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>90</v>
@@ -3047,7 +3047,7 @@
         <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
         <v>93</v>
@@ -3061,7 +3061,7 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
         <v>96</v>
@@ -3075,7 +3075,7 @@
         <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>99</v>
@@ -3089,301 +3089,301 @@
         <v>101</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
         <v>166</v>
@@ -3397,7 +3397,7 @@
         <v>168</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
         <v>169</v>
@@ -3411,7 +3411,7 @@
         <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
         <v>172</v>
@@ -3425,7 +3425,7 @@
         <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D56" t="s">
         <v>175</v>
@@ -3439,7 +3439,7 @@
         <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
         <v>178</v>
@@ -3453,7 +3453,7 @@
         <v>180</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
         <v>181</v>
@@ -3467,7 +3467,7 @@
         <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="D59" t="s">
         <v>184</v>
@@ -3481,7 +3481,7 @@
         <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D60" t="s">
         <v>187</v>
@@ -3495,49 +3495,49 @@
         <v>189</v>
       </c>
       <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" t="s">
         <v>190</v>
-      </c>
-      <c r="D61" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" t="s">
         <v>192</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
         <v>193</v>
-      </c>
-      <c r="C62" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
         <v>195</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" t="s">
         <v>196</v>
-      </c>
-      <c r="C63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" t="s">
         <v>198</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>199</v>
-      </c>
-      <c r="C64" t="s">
-        <v>165</v>
       </c>
       <c r="D64" t="s">
         <v>200</v>
@@ -3551,7 +3551,7 @@
         <v>202</v>
       </c>
       <c r="C65" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D65" t="s">
         <v>203</v>
@@ -3565,175 +3565,175 @@
         <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="D71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="D74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="D75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="D78" t="s">
         <v>243</v>
@@ -3747,7 +3747,7 @@
         <v>245</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
         <v>246</v>
@@ -3761,7 +3761,7 @@
         <v>248</v>
       </c>
       <c r="C80" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
         <v>249</v>
@@ -3775,7 +3775,7 @@
         <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
         <v>252</v>
@@ -3789,7 +3789,7 @@
         <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
         <v>255</v>
@@ -3803,7 +3803,7 @@
         <v>257</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D83" t="s">
         <v>258</v>
@@ -3817,7 +3817,7 @@
         <v>260</v>
       </c>
       <c r="C84" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="D84" t="s">
         <v>261</v>
@@ -3831,7 +3831,7 @@
         <v>263</v>
       </c>
       <c r="C85" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
         <v>264</v>
@@ -3845,7 +3845,7 @@
         <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D86" t="s">
         <v>267</v>
@@ -3859,7 +3859,7 @@
         <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D87" t="s">
         <v>270</v>
@@ -3873,595 +3873,595 @@
         <v>272</v>
       </c>
       <c r="C88" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D88" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B91" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B92" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D92" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C94" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D94" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="D95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B96" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C97" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C98" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="D98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C99" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D99" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D100" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B101" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="D101" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B102" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C102" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D102" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B103" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C103" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="D103" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B104" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C104" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B105" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D105" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B106" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="D106" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B107" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D107" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B108" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C108" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="D108" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B109" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="D109" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B110" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D110" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B111" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="D111" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C112" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="D112" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B113" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C113" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D113" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B114" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C114" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="D114" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B115" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C115" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="D115" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="D116" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B117" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C117" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D117" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B118" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C118" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="D118" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B119" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C119" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D119" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C120" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="D120" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B121" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D121" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B122" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C122" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D122" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B123" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C123" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D123" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B124" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C124" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D124" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B125" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C125" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D125" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B126" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C126" t="s">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="D126" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B127" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C127" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="D127" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B128" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C128" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D128" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B129" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C129" t="s">
-        <v>387</v>
+        <v>206</v>
       </c>
       <c r="D129" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B130" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C130" t="s">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="D130" t="s">
         <v>401</v>
@@ -4475,7 +4475,7 @@
         <v>403</v>
       </c>
       <c r="C131" t="s">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="D131" t="s">
         <v>404</v>
@@ -4489,7 +4489,7 @@
         <v>406</v>
       </c>
       <c r="C132" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="D132" t="s">
         <v>407</v>
@@ -4503,7 +4503,7 @@
         <v>409</v>
       </c>
       <c r="C133" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D133" t="s">
         <v>410</v>
@@ -4517,7 +4517,7 @@
         <v>412</v>
       </c>
       <c r="C134" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="D134" t="s">
         <v>413</v>
@@ -4531,7 +4531,7 @@
         <v>415</v>
       </c>
       <c r="C135" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="D135" t="s">
         <v>416</v>
@@ -4545,7 +4545,7 @@
         <v>418</v>
       </c>
       <c r="C136" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D136" t="s">
         <v>419</v>
@@ -4559,7 +4559,7 @@
         <v>421</v>
       </c>
       <c r="C137" t="s">
-        <v>400</v>
+        <v>199</v>
       </c>
       <c r="D137" t="s">
         <v>422</v>
@@ -4573,7 +4573,7 @@
         <v>424</v>
       </c>
       <c r="C138" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D138" t="s">
         <v>425</v>
@@ -4587,7 +4587,7 @@
         <v>427</v>
       </c>
       <c r="C139" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="D139" t="s">
         <v>428</v>
@@ -4601,7 +4601,7 @@
         <v>430</v>
       </c>
       <c r="C140" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="D140" t="s">
         <v>431</v>
@@ -4615,7 +4615,7 @@
         <v>433</v>
       </c>
       <c r="C141" t="s">
-        <v>400</v>
+        <v>199</v>
       </c>
       <c r="D141" t="s">
         <v>434</v>
@@ -4629,7 +4629,7 @@
         <v>436</v>
       </c>
       <c r="C142" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D142" t="s">
         <v>437</v>
@@ -4643,7 +4643,7 @@
         <v>439</v>
       </c>
       <c r="C143" t="s">
-        <v>387</v>
+        <v>199</v>
       </c>
       <c r="D143" t="s">
         <v>440</v>
@@ -4657,7 +4657,7 @@
         <v>442</v>
       </c>
       <c r="C144" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D144" t="s">
         <v>443</v>
@@ -4671,7 +4671,7 @@
         <v>445</v>
       </c>
       <c r="C145" t="s">
-        <v>387</v>
+        <v>199</v>
       </c>
       <c r="D145" t="s">
         <v>446</v>
@@ -4685,7 +4685,7 @@
         <v>448</v>
       </c>
       <c r="C146" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
         <v>449</v>
@@ -4699,7 +4699,7 @@
         <v>451</v>
       </c>
       <c r="C147" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="D147" t="s">
         <v>452</v>
@@ -4713,7 +4713,7 @@
         <v>454</v>
       </c>
       <c r="C148" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="D148" t="s">
         <v>455</v>
@@ -4727,7 +4727,7 @@
         <v>457</v>
       </c>
       <c r="C149" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D149" t="s">
         <v>458</v>
@@ -4741,7 +4741,7 @@
         <v>460</v>
       </c>
       <c r="C150" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="D150" t="s">
         <v>461</v>
@@ -4755,7 +4755,7 @@
         <v>463</v>
       </c>
       <c r="C151" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="D151" t="s">
         <v>464</v>
@@ -4769,7 +4769,7 @@
         <v>466</v>
       </c>
       <c r="C152" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
       <c r="D152" t="s">
         <v>467</v>
@@ -4783,7 +4783,7 @@
         <v>469</v>
       </c>
       <c r="C153" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="D153" t="s">
         <v>470</v>
@@ -4797,7 +4797,7 @@
         <v>472</v>
       </c>
       <c r="C154" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="D154" t="s">
         <v>473</v>
@@ -4811,7 +4811,7 @@
         <v>475</v>
       </c>
       <c r="C155" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="D155" t="s">
         <v>476</v>
@@ -4825,7 +4825,7 @@
         <v>478</v>
       </c>
       <c r="C156" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D156" t="s">
         <v>479</v>
@@ -4839,7 +4839,7 @@
         <v>481</v>
       </c>
       <c r="C157" t="s">
-        <v>400</v>
+        <v>273</v>
       </c>
       <c r="D157" t="s">
         <v>482</v>
@@ -4853,7 +4853,7 @@
         <v>484</v>
       </c>
       <c r="C158" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="D158" t="s">
         <v>485</v>
@@ -4867,7 +4867,7 @@
         <v>487</v>
       </c>
       <c r="C159" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="D159" t="s">
         <v>488</v>
@@ -4881,7 +4881,7 @@
         <v>490</v>
       </c>
       <c r="C160" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="D160" t="s">
         <v>491</v>
@@ -4895,7 +4895,7 @@
         <v>493</v>
       </c>
       <c r="C161" t="s">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="D161" t="s">
         <v>494</v>
@@ -4909,637 +4909,637 @@
         <v>496</v>
       </c>
       <c r="C162" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="D162" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B163" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C163" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="D163" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B164" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C164" t="s">
-        <v>387</v>
+        <v>206</v>
       </c>
       <c r="D164" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B165" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C165" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="D165" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B166" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C166" t="s">
-        <v>73</v>
+        <v>355</v>
       </c>
       <c r="D166" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B167" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C167" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="D167" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B168" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C168" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D168" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B169" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C169" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D169" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B170" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C170" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="D170" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B171" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C171" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="D171" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B172" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C172" t="s">
-        <v>387</v>
+        <v>199</v>
       </c>
       <c r="D172" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B173" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C173" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="D173" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B174" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C174" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D174" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B175" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C175" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="D175" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B176" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C176" t="s">
-        <v>400</v>
+        <v>273</v>
       </c>
       <c r="D176" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B177" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C177" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="D177" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B178" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C178" t="s">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="D178" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B179" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C179" t="s">
-        <v>400</v>
+        <v>273</v>
       </c>
       <c r="D179" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B180" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C180" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D180" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B181" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C181" t="s">
-        <v>400</v>
+        <v>199</v>
       </c>
       <c r="D181" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B182" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C182" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="D182" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B183" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C183" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="D183" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B184" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C184" t="s">
-        <v>83</v>
+        <v>497</v>
       </c>
       <c r="D184" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B185" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C185" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D185" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B186" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C186" t="s">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="D186" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B187" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C187" t="s">
-        <v>518</v>
+        <v>206</v>
       </c>
       <c r="D187" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B188" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C188" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="D188" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B189" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C189" t="s">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="D189" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B190" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C190" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="D190" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B191" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C191" t="s">
-        <v>387</v>
+        <v>206</v>
       </c>
       <c r="D191" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B192" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C192" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="D192" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B193" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C193" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="D193" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B194" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C194" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D194" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B195" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C195" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D195" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B196" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C196" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="D196" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B197" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C197" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="D197" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B198" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C198" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="D198" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B199" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C199" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="D199" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B200" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C200" t="s">
-        <v>387</v>
+        <v>74</v>
       </c>
       <c r="D200" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B201" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C201" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D201" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B202" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C202" t="s">
-        <v>400</v>
+        <v>273</v>
       </c>
       <c r="D202" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B203" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C203" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="D203" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B204" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C204" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="D204" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B205" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C205" t="s">
-        <v>387</v>
+        <v>206</v>
       </c>
       <c r="D205" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B206" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C206" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D206" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B207" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C207" t="s">
-        <v>633</v>
+        <v>355</v>
       </c>
       <c r="D207" t="s">
         <v>634</v>
@@ -5553,7 +5553,7 @@
         <v>636</v>
       </c>
       <c r="C208" t="s">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="D208" t="s">
         <v>637</v>
@@ -5567,7 +5567,7 @@
         <v>639</v>
       </c>
       <c r="C209" t="s">
-        <v>518</v>
+        <v>206</v>
       </c>
       <c r="D209" t="s">
         <v>640</v>
@@ -5581,7 +5581,7 @@
         <v>642</v>
       </c>
       <c r="C210" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="D210" t="s">
         <v>643</v>
@@ -5595,7 +5595,7 @@
         <v>645</v>
       </c>
       <c r="C211" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D211" t="s">
         <v>646</v>
@@ -5609,7 +5609,7 @@
         <v>648</v>
       </c>
       <c r="C212" t="s">
-        <v>165</v>
+        <v>497</v>
       </c>
       <c r="D212" t="s">
         <v>649</v>
@@ -5623,7 +5623,7 @@
         <v>651</v>
       </c>
       <c r="C213" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D213" t="s">
         <v>652</v>
@@ -5637,7 +5637,7 @@
         <v>654</v>
       </c>
       <c r="C214" t="s">
-        <v>387</v>
+        <v>30</v>
       </c>
       <c r="D214" t="s">
         <v>655</v>
@@ -5651,7 +5651,7 @@
         <v>657</v>
       </c>
       <c r="C215" t="s">
-        <v>387</v>
+        <v>497</v>
       </c>
       <c r="D215" t="s">
         <v>658</v>
@@ -5665,7 +5665,7 @@
         <v>660</v>
       </c>
       <c r="C216" t="s">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="D216" t="s">
         <v>661</v>
@@ -5679,7 +5679,7 @@
         <v>663</v>
       </c>
       <c r="C217" t="s">
-        <v>400</v>
+        <v>519</v>
       </c>
       <c r="D217" t="s">
         <v>664</v>
@@ -5693,7 +5693,7 @@
         <v>666</v>
       </c>
       <c r="C218" t="s">
-        <v>387</v>
+        <v>497</v>
       </c>
       <c r="D218" t="s">
         <v>667</v>
@@ -5707,7 +5707,7 @@
         <v>669</v>
       </c>
       <c r="C219" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="D219" t="s">
         <v>670</v>
@@ -5721,7 +5721,7 @@
         <v>672</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>497</v>
       </c>
       <c r="D220" t="s">
         <v>673</v>
@@ -5735,7 +5735,7 @@
         <v>675</v>
       </c>
       <c r="C221" t="s">
-        <v>39</v>
+        <v>355</v>
       </c>
       <c r="D221" t="s">
         <v>676</v>
@@ -5749,7 +5749,7 @@
         <v>678</v>
       </c>
       <c r="C222" t="s">
-        <v>633</v>
+        <v>199</v>
       </c>
       <c r="D222" t="s">
         <v>679</v>
@@ -5763,7 +5763,7 @@
         <v>681</v>
       </c>
       <c r="C223" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D223" t="s">
         <v>682</v>
@@ -5777,7 +5777,7 @@
         <v>684</v>
       </c>
       <c r="C224" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="D224" t="s">
         <v>685</v>
@@ -5791,7 +5791,7 @@
         <v>687</v>
       </c>
       <c r="C225" t="s">
-        <v>400</v>
+        <v>273</v>
       </c>
       <c r="D225" t="s">
         <v>688</v>
@@ -5805,7 +5805,7 @@
         <v>690</v>
       </c>
       <c r="C226" t="s">
-        <v>242</v>
+        <v>519</v>
       </c>
       <c r="D226" t="s">
         <v>691</v>
@@ -5819,7 +5819,7 @@
         <v>693</v>
       </c>
       <c r="C227" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="D227" t="s">
         <v>694</v>
@@ -5833,7 +5833,7 @@
         <v>696</v>
       </c>
       <c r="C228" t="s">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="D228" t="s">
         <v>697</v>
@@ -5847,7 +5847,7 @@
         <v>699</v>
       </c>
       <c r="C229" t="s">
-        <v>387</v>
+        <v>206</v>
       </c>
       <c r="D229" t="s">
         <v>700</v>
@@ -5861,7 +5861,7 @@
         <v>702</v>
       </c>
       <c r="C230" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D230" t="s">
         <v>703</v>
@@ -5875,7 +5875,7 @@
         <v>705</v>
       </c>
       <c r="C231" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="D231" t="s">
         <v>706</v>
@@ -5889,7 +5889,7 @@
         <v>708</v>
       </c>
       <c r="C232" t="s">
-        <v>387</v>
+        <v>497</v>
       </c>
       <c r="D232" t="s">
         <v>709</v>
@@ -5903,7 +5903,7 @@
         <v>711</v>
       </c>
       <c r="C233" t="s">
-        <v>518</v>
+        <v>273</v>
       </c>
       <c r="D233" t="s">
         <v>712</v>
@@ -5917,7 +5917,7 @@
         <v>714</v>
       </c>
       <c r="C234" t="s">
-        <v>400</v>
+        <v>519</v>
       </c>
       <c r="D234" t="s">
         <v>715</v>
@@ -5931,7 +5931,7 @@
         <v>717</v>
       </c>
       <c r="C235" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="D235" t="s">
         <v>718</v>
@@ -5945,7 +5945,7 @@
         <v>720</v>
       </c>
       <c r="C236" t="s">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="D236" t="s">
         <v>721</v>
@@ -5959,136 +5959,136 @@
         <v>723</v>
       </c>
       <c r="C237" t="s">
-        <v>83</v>
+        <v>724</v>
       </c>
       <c r="D237" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B238" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C238" t="s">
-        <v>633</v>
+        <v>43</v>
       </c>
       <c r="D238" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B239" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C239" t="s">
-        <v>518</v>
+        <v>199</v>
       </c>
       <c r="D239" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B240" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C240" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="D240" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B241" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C241" t="s">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="D241" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B242" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C242" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="D242" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B243" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C243" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="D243" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B244" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C244" t="s">
-        <v>400</v>
+        <v>273</v>
       </c>
       <c r="D244" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B245" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C245" t="s">
-        <v>387</v>
+        <v>199</v>
       </c>
       <c r="D245" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B246" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C246" t="s">
-        <v>633</v>
+        <v>497</v>
       </c>
       <c r="D246" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6099,7 +6099,7 @@
         <v>753</v>
       </c>
       <c r="C247" t="s">
-        <v>242</v>
+        <v>497</v>
       </c>
       <c r="D247" t="s">
         <v>754</v>
@@ -6113,10 +6113,10 @@
         <v>756</v>
       </c>
       <c r="C248" t="s">
-        <v>518</v>
+        <v>355</v>
       </c>
       <c r="D248" t="s">
-        <v>488</v>
+        <v>743</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6127,7 +6127,7 @@
         <v>758</v>
       </c>
       <c r="C249" t="s">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="D249" t="s">
         <v>759</v>
@@ -6141,7 +6141,7 @@
         <v>761</v>
       </c>
       <c r="C250" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D250" t="s">
         <v>762</v>
